--- a/data/DPI Readings.xlsx
+++ b/data/DPI Readings.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28015"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednationsfoundation.sharepoint.com/sites/DIAL_/Unlocking Data/Project - Digital Impact Exchange/1. Product &amp; Research (2024)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAABA8AB-0DBF-4218-8BCE-5119DA001737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F27C8F4-EF9D-4B16-A4B2-719578A76FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="28800" windowHeight="16420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List 1" sheetId="1" r:id="rId1"/>
     <sheet name="List 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Country Profiles - Africa" sheetId="5" r:id="rId3"/>
-    <sheet name="Automate" sheetId="4" r:id="rId4"/>
-    <sheet name="Tags" sheetId="3" r:id="rId5"/>
+    <sheet name="Africa Orgs" sheetId="6" r:id="rId3"/>
+    <sheet name="Africa Index" sheetId="5" r:id="rId4"/>
+    <sheet name="Automate" sheetId="4" r:id="rId5"/>
+    <sheet name="Tags" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List 1'!$A$1:$F$32</definedName>
@@ -48,7 +49,7 @@
     <author>tc={EC50DA25-DCB4-074F-B21A-7CA863673F74}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{EC50DA25-DCB4-074F-B21A-7CA863673F74}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EC50DA25-DCB4-074F-B21A-7CA863673F74}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -622,7 +623,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="589">
   <si>
     <t xml:space="preserve">S. no. </t>
   </si>
@@ -651,7 +652,7 @@
     <t>Article</t>
   </si>
   <si>
-    <t>David Eaves,
+    <t>David Eaves;
 Jordan Sandman</t>
   </si>
   <si>
@@ -668,9 +669,9 @@
     <t>How digital public infrastructure supports empowerment, inclusion, and resilience.</t>
   </si>
   <si>
-    <t>Vyjayanti Desai,
-Jonathan Marskell,
-Georgina Marin,
+    <t>Vyjayanti Desai;
+Jonathan Marskell;
+Georgina Marin;
 Minita Varghese</t>
   </si>
   <si>
@@ -822,9 +823,9 @@
 Governments in Emerging Markets</t>
   </si>
   <si>
-    <t>David  Porteous,
-Priya Vora,
-Ravi Shankar, Chaturvedi,
+    <t>David  Porteous;
+Priya Vora;
+Ravi Shankar Chaturvedi;
 Peter Rabley</t>
   </si>
   <si>
@@ -840,8 +841,8 @@
     <t>What is the DPI approach?</t>
   </si>
   <si>
-    <t>Keyzom Ngodup,
-Rahul Matthan,
+    <t>Keyzom Ngodup;
+Rahul Matthan;
 Rudra Chaudhuri</t>
   </si>
   <si>
@@ -862,7 +863,7 @@
     <t xml:space="preserve">Essay  </t>
   </si>
   <si>
-    <t>Liv Nordhaug,
+    <t>Liv Nordhaug;
 Lucy Harris</t>
   </si>
   <si>
@@ -912,11 +913,11 @@
     <t>Working Papers</t>
   </si>
   <si>
-    <t>Cristian Alonso,
-Tanuj Bhojwani, 
-Emine Hanedar, 
-Dinar Prihardini, 
-Gerardo Uña,
+    <t>Cristian Alonso;
+Tanuj Bhojwani; 
+Emine Hanedar; 
+Dinar Prihardini; 
+Gerardo Uña;
 Kateryna Zhabska</t>
   </si>
   <si>
@@ -933,7 +934,7 @@
 DPI : 5 insights</t>
   </si>
   <si>
-    <t>Keyzom Ngodup,
+    <t>Keyzom Ngodup;
 Carolin Frankenhauser</t>
   </si>
   <si>
@@ -950,10 +951,9 @@
 Governance of DPGs</t>
   </si>
   <si>
-    <t xml:space="preserve">
-David Eaves, 
-Leonie Bolte, 
-Omayra Chuquihuara,
+    <t>David Eaves; 
+Leonie Bolte; 
+Omayra Chuquihuara;
 Surabhi Hodigere</t>
   </si>
   <si>
@@ -984,8 +984,8 @@
     <t>Why DPI can be a game changer for children?</t>
   </si>
   <si>
-    <t>Chris Larsson,
-Fui Meng Liew,
+    <t>Chris Larsson;
+Fui Meng Liew;
 Carolin Frankenhauser</t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
 with DPI</t>
   </si>
   <si>
-    <t>Jordan Sandman,
+    <t>Jordan Sandman;
 Tim Wood</t>
   </si>
   <si>
@@ -1155,6 +1155,9 @@
     <t>Article Title</t>
   </si>
   <si>
+    <t>Publication Date</t>
+  </si>
+  <si>
     <t>Type (Pick 1)</t>
   </si>
   <si>
@@ -1227,6 +1230,9 @@
     <t>Africa Agenda for Cyber Capacity Building (AA-CCB)</t>
   </si>
   <si>
+    <t>Not dated</t>
+  </si>
+  <si>
     <t xml:space="preserve">Global Forum on Cyber Expertise </t>
   </si>
   <si>
@@ -1245,7 +1251,7 @@
     <t>Global Partnership on Artificial Intelligence</t>
   </si>
   <si>
-    <t>https://gpai.ai/projects/data-governance/</t>
+    <t>https://gpai.ai/projects/data-governance/data-justice-policy-brief-putting-data-justice-into-practice.pdf</t>
   </si>
   <si>
     <t>This guide provides actionable information for policymakers who wish to implement the principles and priorities of data justice in their policymaking activities. In this section we present the process undertaken to produce this guide, the intended audience, and the context of the Advancing Data Justice Research and Practice project.</t>
@@ -1255,6 +1261,9 @@
   </si>
   <si>
     <t>Technical Choices</t>
+  </si>
+  <si>
+    <t>https://gpai.ai/projects/data-governance/data-justice-in-practice-a-guide-for-developers.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">This guide provides actionable information for developers who wish to implement the principles and priorities
@@ -1267,7 +1276,7 @@
     <t>Pollicy</t>
   </si>
   <si>
-    <t>https://pollicy.org/resource/behind-the-work-of-digital-justice-report/</t>
+    <t>https://pollicy.org/wp-content/uploads/2023/03/Behind_the_work_of_digital_justice_report.pdf</t>
   </si>
   <si>
     <t>The study investigates and explores the reactive nature of digital rights &amp; digital security programs. Constantly reacting to rapidly emerging challenges may hinder organizations in this secor from reflecting on the quality of their interventions, including whether they are able to meet understood needs or replicate successes and course correct on mistakes.</t>
@@ -1296,7 +1305,7 @@
     <t>CSEA</t>
   </si>
   <si>
-    <t>https://cseaafrica.org/category/publications/policy-brief-alerts/</t>
+    <t>https://cseaafrica.org/postdetails/eyJpdiI6InZwZ01yWGFqV3BsN3hLN0NLNTFPUkE9PSIsInZhbHVlIjoiL3I2eWd3SlpsaU5Xd2Y4ZUlENTFYQT09IiwibWFjIjoiNzc2YjM5ZDdmMTZiNzQ4ZDk4NTQ3YTFhY2YyMDk3ZTA5MmY1ZmFkNmYyNjBjYzVmNmFhYjlmODk1Y2Q0NzY4YyIsInRhZyI6IiJ9</t>
   </si>
   <si>
     <t>This brief evaluates the current state of enabling institutions, policies, and citizen engagement, in fostering greater data value creation in the public sector.</t>
@@ -1305,7 +1314,7 @@
     <t>Enhancing Data Sharing Practices Between Government Agencies</t>
   </si>
   <si>
-    <t>https://cseaafrica.org/enhancing-data-sharing-practices-between-government-agencies/</t>
+    <t>https://policycommons.net/artifacts/11761221/case-study/12652513/</t>
   </si>
   <si>
     <t>In today’s fast-paced world, access to accurate and timely data is crucial for effective governance and decision-making. Policymakers often struggle to access the data they need to make informed decisions and serve the public effectively. The problem lies not in the lack of available data but in its inaccessibility. Unfortunately, many government ministries, departments, and agencies (MDAs) in African countries face challenges when it comes to sharing and integrating data. This lack of data interoperability hampers collaboration, slows down processes, and prevents the delivery of efficient public services.</t>
@@ -1350,7 +1359,7 @@
     <t>Inclusion, Stewardship</t>
   </si>
   <si>
-    <t>Ivana Feldfeber, Mailén García, Rocío Palacín, Yasmín Quiroga, and Carolina Glasserman Apicella</t>
+    <t>Ivana Feldfeber; Mailén García; Rocío Palacín; Yasmín Quiroga; Carolina Glasserman Apicella</t>
   </si>
   <si>
     <t xml:space="preserve">data.org </t>
@@ -1418,7 +1427,7 @@
     <t xml:space="preserve">Ministry of Innovation and Technology </t>
   </si>
   <si>
-    <t>https://mint.gov.et/docs/ethiopian-national-enterprise-architecture-framework-eneaf-governance-and-compliance/?lang=en</t>
+    <t>https://thedocs.worldbank.org/en/doc/8bef92278ecc81a75958d18ef95cdbd4-0460012022/original/I-2-2-I3-2-NEAF-and-EaGIF-Implementation-RoadMap.pdf</t>
   </si>
   <si>
     <t>The document contains the processes, organizational structure, roles and responsibilities and the associated elements of the proposed ENEAF governance. While the structure is designed to show both the ENEAF and EeGIFaltogether, the details of ENEAF are presented in the current document and that of the EeGIF are depicted in a separate document.</t>
@@ -1427,7 +1436,7 @@
     <t>Ethiopian EGovernmment Interoperability Framework (EEGIF)</t>
   </si>
   <si>
-    <t>https://mint.gov.et/docs/ethiopian-egovernment-interoperability-framework-eegif-governance-and-compliance/?lang=en</t>
+    <t>https://thedocs.worldbank.org/en/doc/003d76985cbd41c53cfa9825d2464495-0460012022/original/I-3-9-1-EeGIF-Governance-and-Compliance.pdf</t>
   </si>
   <si>
     <t>This document presents the proposed governance framework of the EeGIF which is an extension of the ENEAF by focusing on the issues that are pertinent to interoperability. Issues of compliance is also given focus on this document where issues like trigger of compliance checking, compliance confirmation processes, consequence on non-compliance are outlined.</t>
@@ -1436,7 +1445,7 @@
     <t>Ethiopia Digital Rights Landscape Report</t>
   </si>
   <si>
-    <t>Iginio Gagliardone and Atnafu Brhane</t>
+    <t>Iginio Gagliardone; Atnafu Brhane</t>
   </si>
   <si>
     <t xml:space="preserve">Institute of Development Studies </t>
@@ -1448,6 +1457,21 @@
     <t>An assessment of the landscape of digital rights in Ethiopia</t>
   </si>
   <si>
+    <t>Ethiopia E-Services Portal</t>
+  </si>
+  <si>
+    <t>National Website</t>
+  </si>
+  <si>
+    <t>https://www.eservices.gov.et/</t>
+  </si>
+  <si>
+    <t>Ethiopia E-Visa Portal</t>
+  </si>
+  <si>
+    <t>https://www.evisa.gov.et/</t>
+  </si>
+  <si>
     <t>Digital Uganda Vision</t>
   </si>
   <si>
@@ -1463,7 +1487,7 @@
     <t>Uganda's National Policy and Strategic Framework that reviews, integrates, consolidates, and improves all the existing ICT strategies, policies and plans into one overarching digital Vision for Uganda by providing a unified direction for ICT development and an Integrated ICT project implementation approach</t>
   </si>
   <si>
-    <t>Uganda's Digital Transformation Roadmap</t>
+    <t>Uganda's Digital Transformation Roadmap 2023-2027</t>
   </si>
   <si>
     <t>https://ict.go.ug/programmes/digital-transformation-roadmap/</t>
@@ -1484,7 +1508,7 @@
     <t>Uganda's Data Protection and Privacy Act</t>
   </si>
   <si>
-    <t>Personal Data Protection and Privacy Act 2019</t>
+    <t>https://ict.go.ug/wp-content/uploads/2019/03/Data-Protection-and-Privacy-Act-2019.pdf</t>
   </si>
   <si>
     <t>An Act to protect the privacy of the individual and of personal data by regulating the collection and processing of personal data</t>
@@ -1503,7 +1527,7 @@
     <t>The National Payment System Act, 2020 provides clear authority to develop and define regulations for the operation of payment systems in Uganda. This will help to ensure safety and efficiency in operations and standards for the delivery of payment services.</t>
   </si>
   <si>
-    <t>National Digital Transformation Strategy Zambia</t>
+    <t>National Digital Transformation Strategy Zambia 2023-2027</t>
   </si>
   <si>
     <t>Zambia</t>
@@ -1512,28 +1536,55 @@
     <t>Ministry of Technology and Science</t>
   </si>
   <si>
-    <t>https://www.mots.gov.zm/?page_id=972</t>
+    <t>https://www.mots.gov.zm/wp-content/uploads/2023/10/National-Digital-Transformation-Strategy.pdf</t>
   </si>
   <si>
     <t>The National Digital Transformation Strategy of Zambia has been formulated to establish a coordinated approach in building Zambia’s digital economy. This entails a complete shift towards the deliberate adoption of digital technologies across all sectors of the economy. The approach builds on the policy direction to foster the deployment of electronic services across all sectors of the economy</t>
   </si>
   <si>
+    <t>Ministy of Technology and Science Strategic Plan 2023-2026</t>
+  </si>
+  <si>
+    <t>https://www.mots.gov.zm/wp-content/uploads/2023/10/Strategic-Plan-2022-2026.pdf</t>
+  </si>
+  <si>
+    <t>This is Zambia's Strategic Plan for 2022-2026 for the Ministry of Technology and Science.</t>
+  </si>
+  <si>
+    <t>Ministry of Science and Technology ICT Implementation Plan</t>
+  </si>
+  <si>
+    <t>https://www.mots.gov.zm/wp-content/uploads/2023/10/National-ICT-Policy-2023-Implimentation-Plan.pdf</t>
+  </si>
+  <si>
+    <t>The 2022 National Information and Communication Technology Policy has been anchored on the Vision 2030 which espouses the transformation of Zambia into a prosperous middle-income country. It expresses the renewed commitment of the Zambian government with respect to the development of the Information and Communication Technology sector and leveraging its benefits to revolutionise key sectors of the economy. The Policy provides strategic guidance on how the development of the sector will be coordinated while ensuring that it remains inclusive, efficient, and competitive. Implementation of this Policy has the potential to meaningfully drive Zambia towards achieving the goal set out in the Vision 2030 and the UN Sustainable Development Goals (SDG). The ICT sector can enable increased productivity, efficiency, and improve service provision across key sectors of the economy such as health, education, transportation, energy, and agriculture, among others.</t>
+  </si>
+  <si>
+    <t>Ministry of Science and Technology ICT Strategy</t>
+  </si>
+  <si>
+    <t>https://www.mots.gov.zm/wp-content/uploads/2023/10/National-ICT-Policy-2023.pdf</t>
+  </si>
+  <si>
+    <t>The 2023 National Information and Communication Technology Policy has been anchored on the Vision 2030 which espouses the transformation of Zambia into a “Prosperous Middle-Income Nation by 2030”. It expresses the country’s renewed commitment to the development of ICT and leveraging its benefits to revolutionise key sectors of the economy. The Policy provides strategic guidance on how the development of the sector will be coordinated while ensuring that it remains inclusive, efficient and competitive. This Policy has the potential to meaningfully drive Zambia towards achieving the objectives set out in the Vision 2030 and other international obligations</t>
+  </si>
+  <si>
     <t>Zambia's E-Government Interoperability Standard</t>
   </si>
   <si>
     <t>Office of the President Electronic Government Division</t>
   </si>
   <si>
-    <t>https://www.szi.gov.zm/?page_id=195</t>
+    <t>https://www.szi.gov.zm/wp-content/uploads/2022/01/eGovernment-interoperability-Standard.pdf</t>
   </si>
   <si>
     <t>The Electronic Government Interoperability Standard is intended to facilitate seamless interconnection and exchange of data/information between various Government Information Systems and Applications owned by different public service institutions. The Standard takes into account International Standards, Government and, Stakeholders requirements. It is hoped that the interoperability of Government Systems and Applications will eliminate unnecessary duplication and lower the cost of service delivery through efficiency. The Electronic Government Division, being the primary systems integrator of Government processes, is required to ensure that Information Systems and Applications in the public service are compliant to set standards in order to be considered for integration into the Government ICT Infrastructure. This standard is aimed at providing the basic guidelines for achieving interoperability in the public service and will facilitate data sharing and reuse.</t>
   </si>
   <si>
-    <t>Zambia's Smart Government Master Plan</t>
-  </si>
-  <si>
-    <t>https://www.szi.gov.zm/?page_id=196</t>
+    <t>Smart Zambia Electronic Government Master Plan (2018-2030)</t>
+  </si>
+  <si>
+    <t>https://www.szi.gov.zm/wp-content/uploads/2022/01/eGOVERNMENT_Masterplan_v3.0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">The Government of the Republic of Zambia launched the SMART Zambia Agenda in September 2015. The goal of the SMART Zambia Agenda is to achieve social and economic transformation by adopting a paradigm shift from traditional approaches of service delivery. </t>
@@ -1542,9 +1593,6 @@
     <t>ZamPortal</t>
   </si>
   <si>
-    <t>National Website</t>
-  </si>
-  <si>
     <t>https://zamportal.gov.zm/about-zamportal/</t>
   </si>
   <si>
@@ -1563,19 +1611,118 @@
     <t>The Kenya National Digital Master Plan 2022-2032 is a sequential progression of the Master Plan 2014-2017, the blueprint for leveraging and deepening the contribution of ICT to accelerate economic growth. The Master Plan 2014-2017 which firmly grounded on the e-Government Strategy 2004, the first National ICT Policy of 2005 and The Master Plan 2013, adopted a conceptual model that espoused the critical elements necessary for a social-, economic- and political-wide pervasive and ubiquitous ICT for rapid and broad contribution to growth.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kenya ICT Authority: Acceleration Project Digital </t>
-  </si>
-  <si>
-    <t>Kenya Digital Economy Blueprint</t>
-  </si>
-  <si>
-    <t>Kenya National Cyber Securty Strategy</t>
-  </si>
-  <si>
-    <t>Kenya National Payments Strategy</t>
-  </si>
-  <si>
-    <t>Kenya Government ICT Standards</t>
+    <t>Kenya Youth Development Policy 2019</t>
+  </si>
+  <si>
+    <t>Ministry of ICT and The Digital Economy</t>
+  </si>
+  <si>
+    <t>https://ict.go.ke/wp-content/uploads/2020/08/Kenya-Youth-Development-Policy-2019.pdf</t>
+  </si>
+  <si>
+    <t>The Kenya Youth Development Policy (KYDP) 2019 seeks to provide an opportunity for improving the quality of life for the youth in Kenya through their empowerment and participation in economic and democratic processes as well as in community and civic affairs. It also advocates for creation of a supportive social, cultural, economic and political environment that will empower the youth to be active actors in national development. The Policy therefore provides a detailed account of various aspects, key of which are highlighted here under.</t>
+  </si>
+  <si>
+    <t>The Registrations of Persons (National Integrated Identity Management System) Regulations, 2020</t>
+  </si>
+  <si>
+    <t>Government of Kenya</t>
+  </si>
+  <si>
+    <t>https://ict.go.ke/wp-content/uploads/2020/02/THE-REGISTRATION-OF-PERSONS-NATIONAL-INTEGRATED-IDENTITY-MANAGEMENT-SYSTEM-REGULATIONS-2020.pdf</t>
+  </si>
+  <si>
+    <t>This document is the Registration of Persons Act of Kenya</t>
+  </si>
+  <si>
+    <t>The Data Protection (Civil Registration) Regulations, 2020</t>
+  </si>
+  <si>
+    <t>https://ict.go.ke/wp-content/uploads/2020/02/THE-DATA-PROTECTION-CIVIL-REGISTRATION-REGULATIONS-2020.pdf</t>
+  </si>
+  <si>
+    <t>This document is the Data Protection Act for Civil Registrations of Kenya</t>
+  </si>
+  <si>
+    <t>National ICT Policy</t>
+  </si>
+  <si>
+    <t>https://www.ict.go.ke/wp-content/uploads/2019/12/NATIONAL-ICT-POLICY-2019.pdf</t>
+  </si>
+  <si>
+    <t>This policy is designed to realise the potential of the digital economy by creating an enabling environment for all citizens and stakeholders. The ICT Policy defines the forward-looking position of the Government on various areas of the evolving ICT sector landscape in Kenya</t>
+  </si>
+  <si>
+    <t>The Data Protection Act, 2019</t>
+  </si>
+  <si>
+    <t>https://www.ict.go.ke/wp-content/uploads/2019/11/TheDataProtectionAct__No24of2019.pdf</t>
+  </si>
+  <si>
+    <t>This document is the Data Protection Act of Kenya</t>
+  </si>
+  <si>
+    <t>Digital Economy Blueprint</t>
+  </si>
+  <si>
+    <t>Republic of Kenya</t>
+  </si>
+  <si>
+    <t>https://www.ict.go.ke/wp-content/uploads/2019/05/Kenya-Digital-Economy-2019.pdf</t>
+  </si>
+  <si>
+    <t>This Blueprint seeks to provide a conceptual framework adopted by Kenya in its quest towards the realisation of a successful and sustainable digital economy. It commences with a brief overview of the digital economy ecosystem, then proceeds to evaluate some of the currently held definition of the digital economy by relying on a much broader concept.</t>
+  </si>
+  <si>
+    <t>National Broadband Strategy</t>
+  </si>
+  <si>
+    <t>https://www.ict.go.ke/wp-content/uploads/2019/05/National-Broadband-Strategy-2023-FINAL.pdf</t>
+  </si>
+  <si>
+    <t>The Government of Kenya presents the National Broadband Strategy (2023) for the country. This strategy builds on the 2013-2017 strategy and takes into account recent technological and industry trends as well as market realities. The vision of NBS 2023 is to transform Kenya into a globally competitive knowledge-based society enabled by affordable, secure and fast broadband connectivity.</t>
+  </si>
+  <si>
+    <t>Cybersecurity Strategy</t>
+  </si>
+  <si>
+    <t>https://www.ict.go.ke/wp-content/uploads/2016/04/GOKCSMP.pdf</t>
+  </si>
+  <si>
+    <t>In response to cybersecurity threats, and in direct support of the national priorities and ICT goals defined in Vision 2030, Kenya’s ICT Ministry developed a National Cybersecurity Strategy (Strategy). The Strategy defines Kenya’s cybersecurity vision, key objectives, and ongoing commitment to support national priorities by encouraging ICT growth and aggressively protecting critical information infrastructures.</t>
+  </si>
+  <si>
+    <t>Kenya National ICT Master Plan 2013/14 – 2017/18</t>
+  </si>
+  <si>
+    <t>https://www.ict.go.ke/wp-content/uploads/2016/04/The-National-ICT-Masterplan.pdf</t>
+  </si>
+  <si>
+    <t>This Information and Communication Technology Master Plan is derived from multiple stakeholder consultations; review of documents from both private and public institutions; review of Master Plans from other countries; and comparison and benchmarking various development indices with other developed and developing countries. The purpose of this Master Plan is to review and update the Connected Kenya Master Plan launched in February 2013 with a view to extend stakeholders participation and take into account changes in the Jubilee digital Government.</t>
+  </si>
+  <si>
+    <t>Kenya Ministry of ICT Strategic Plan 2013-2017</t>
+  </si>
+  <si>
+    <t>https://www.ict.go.ke/wp-content/uploads/2016/04/MinistryStrategic.pdf</t>
+  </si>
+  <si>
+    <t>The Ministry of Information, Communications and Technology’s Strategic Plan spells out key policy actions, legal and regulatory frameworks, institutional reforms, programmes and projects that will be implemented in the 2013-2017 medium term plan period. The Plan takes into consideration the requirements of the Kenya Constitution, 2010, and the Second Medium Term Plan (MTP2) of the Kenya Vision 2030 Long Term Blue Print.</t>
+  </si>
+  <si>
+    <t>E-Government Strategy</t>
+  </si>
+  <si>
+    <t>https://www.ict.go.ke/wp-content/uploads/2019/05/KENYA-E-GOVERNMENT-STRATEGY-2004.pdf</t>
+  </si>
+  <si>
+    <t>The e-Government Strategy presented in this document is designed to achieve pre-determined set of goals and objectives, which are: better and efficient delivery of Government information and services to the citizens, promote productivity among public servants, encourage participation of citizens in Government and empower all Kenyans in line with development priorities</t>
+  </si>
+  <si>
+    <t>Kenya's eCitizen Portal</t>
+  </si>
+  <si>
+    <t>https://accounts.ecitizen.go.ke/en</t>
   </si>
   <si>
     <t>Sierra Leone National Digital Development Strategy (2021)</t>
@@ -1650,7 +1797,7 @@
     <t>DSTI</t>
   </si>
   <si>
-    <t>https://www.dsti.gov.sl/</t>
+    <t>https://www.dsti.gov.sl/wp-content/uploads/2023/07/Sierra-Leone-National-Innovation-and-Digital-Strategy.pdf</t>
   </si>
   <si>
     <t>The Sierra Leone National Innovation and Digital Strategy (NIDS) is a living document developed by the citizens and the Government of Sierra Leone as primary stakeholders, and in collaboration with relevant policy, technology and research institutions in the public and private sectors. While it is a ten-year vision, NIDS will be updated every 3-5 years as the technology landscape, and cycle evolves, and the activities described in the document are accomplished. This vision will be complemented by a clear strategic set of activities, targets and work plans across the country.</t>
@@ -1680,7 +1827,7 @@
     <t>MOCDE</t>
   </si>
   <si>
-    <t>https://mocde.gov.gm/downloads/</t>
+    <t>https://mocde.gov.gm/wp-content/uploads/2023/10/E-GOVERNMENT-STRATEGY.pdf</t>
   </si>
   <si>
     <t>This is The Gambia’s e-Government Strategy 2021-2024 with outlined action plans. Each action plan has a given associated cost. It is as a result of the measures being taken by MOICI in the development of an ICT Master Plan for The Gambia. The recognized objectives (action plans/projects) in the Strategic Plan are intended to promote the broad goals of the National Development Plan</t>
@@ -1689,30 +1836,45 @@
     <t>Gambia National Economy Digital Masterplan</t>
   </si>
   <si>
+    <t>https://mocde.gov.gm/wp-content/uploads/2024/05/National-Digital-Economy-Masterplan.pdf</t>
+  </si>
+  <si>
     <t>The Gambia Digital Economy Master Plan 2023 - 2033 is a comprehensive and strategic countrywide plan of action with flagship projects to promote and guide the growth and development of the digital economy. It is a holistic plan of action for the short, medium and long term that resonates with the respective strategies of all sectors and seeks to mainstream digitalization and digital transformation in all sectors of development by leveraging on technology, digital solutions, and services to ensure digital inclusion by connecting the unconnected and under-connected, create jobs, modernize and digitally transform the public sector, digitalize the traditional economies, sustainably develop the economy and as well ensure unnecessary duplications of resources and efforts.</t>
   </si>
   <si>
     <t>Gambia Government Open Data Strategy</t>
   </si>
   <si>
+    <t>https://mocde.gov.gm/wp-content/uploads/2024/04/Final-Government-Open-Data-Strategy-2024-2027.pdf</t>
+  </si>
+  <si>
     <t>To address the many challenges, Government Open Data Strategy for 2023-2026 and Action Plan for 2023-2024 were formulated. The Strategy and Action Plan were developed and formulated by the e-Governance Academy for the Ministry of Communications and Digital Economy of The Gambia through a consultative and participatory process involving stakeholders like government agencies, civil society organisations, and the private sector. The Action Plan aligns with the Gambia’s e-government strategy for 2021-2024, and with international best practices and standards for open data</t>
   </si>
   <si>
     <t>Gambia Digital Readiness Assessment Report</t>
   </si>
   <si>
+    <t>https://mocde.gov.gm/wp-content/uploads/2024/04/Final-Digital-Readiness-Assessment-Report-2023.pdf</t>
+  </si>
+  <si>
     <t>Based on the expert evaluation conducted under the "African Union – European Union Digital for Development (AU-EU D4D) Hub" project by the e-Governance Academy (eGA) together with the Estonian Association of Information Technology and Telecommunications, the digital readiness of The Gambia is at the developing level. A strong political will and specific initiatives in the Gambia have helped the digital transformation and helped the country to a developing level. In eGA’s digital maturity assessment methodology is at the second level of digital maturity (emerging, developing, established and advanced).</t>
   </si>
   <si>
     <t>Gambia Draft Data Protection and Privacy Policy</t>
   </si>
   <si>
+    <t>https://mocde.gov.gm/wp-content/uploads/2023/10/Data-Protection-and-Privacy-Policy-and-Strategy-August-2019-Final.pdf</t>
+  </si>
+  <si>
     <t>The purpose of this policy is to lay the foundations of institutional and legal framework for data protection and privacy that will give effect to Section 23 of the Constitution of The Republic of The Gambia and to express the commitment of the Government of The Gambia to ensure the protection of personal data and associated rights of individuals, and in particular the right to privacy.</t>
   </si>
   <si>
     <t>Gambia National Cybersecurity Strategy</t>
   </si>
   <si>
+    <t>https://mocde.gov.gm/wp-content/uploads/2024/02/National-Cybersecurity-Strategy-2022-2026-Final-.pdf</t>
+  </si>
+  <si>
     <t>The Ministry in charge of Cybersecurity (MOCDE) in collaboration with the relevant stakeholders took the lead in the formulation of The Gambia Cybersecurity Policy.</t>
   </si>
   <si>
@@ -1725,96 +1887,502 @@
     <t>Gambia National Digital Identity Strategy</t>
   </si>
   <si>
+    <t>https://mocde.gov.gm/wp-content/uploads/2023/12/Digital-ID-Transformation-Strategy-_Gambia-V_92.pdf</t>
+  </si>
+  <si>
     <t>This document describes the Government's strategy to create a National Digital ID System (DIDS) in Gambia. The Digital ID will establish a digital identity consisting of a minimum set of data, including a unique number, biographical data (name, date of birth, etc.), and biometric information. Biometric data will prevent duplicate registration for services. The system will enable citizens and residents to access a wide range of public and private services reliably. It will also help the private sector and Government reduce fraud and fake identities and cut transaction costs in verifying identities. International studies show that identity systems can significantly support economic growth and access to financial services</t>
   </si>
   <si>
-    <t>Links  for key policies and legal frameworks (leave blank if there is none)</t>
-  </si>
-  <si>
-    <t>Key Government websites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other documents </t>
+    <t>Gambia Digital Literacy Report</t>
+  </si>
+  <si>
+    <t>African Development Bank Group</t>
+  </si>
+  <si>
+    <t>https://mocde.gov.gm/wp-content/uploads/2023/10/Feasibility-Study-on-Digital-Literacy-in-Gambia_Final-Report-1.pdf</t>
+  </si>
+  <si>
+    <t>This report is a feasibility study for the Gambia digital literacy and skills development.</t>
+  </si>
+  <si>
+    <t>Gambia Information and Communication Act</t>
+  </si>
+  <si>
+    <t>https://mocde.gov.gm/wp-content/uploads/2023/10/IC-Act-2009.pdf</t>
+  </si>
+  <si>
+    <t>AN ACT to provide for the re-structuring, development, and regulation of the information and communications sectors in The Gambia</t>
+  </si>
+  <si>
+    <t>E-Waste Management in Malawi</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Thokozani Chimbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Private Partnership Commission </t>
+  </si>
+  <si>
+    <t>https://digmap.pppc.mw/download/e-waste-management-in-malawi/</t>
+  </si>
+  <si>
+    <t>This document is a presentation that walks through the background of e-waste strategy, what e-waste is and why it should be managed. Additionally, the document outiines policy objectuives and e-waste policies and strategies.</t>
+  </si>
+  <si>
+    <t>Guidelines and checklist on compliance with the data protenction act (2022)</t>
+  </si>
+  <si>
+    <t>Malawi Communications Regulatory Authority</t>
+  </si>
+  <si>
+    <t>https://digmap.pppc.mw/download/guideline-and-checklist-on-compliance/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This document outlines guidelines for organizations to help with compliance with the Data Protection Act of 2022. The guidelines and checklist provides references to section nymbers in the Act, summarizes key requirements and provisions of the Act and provides guidance and recommendations as to what should be done to comply. It also suggests which teams in a given organization might appropriately be involved in such actions. </t>
+  </si>
+  <si>
+    <t>Guidelines on personal data breach notifications and communications</t>
+  </si>
+  <si>
+    <t>https://digmap.pppc.mw/download/guideline-on-data-breach-notifications/</t>
+  </si>
+  <si>
+    <t>The purpose of these Guidelines is to give practical advice and guidancetodatacontrollers and data processors when determining for purposes of Section 33 of the Data Protection Act, which requires data processors to notify its engaging entity when a personal data breach has occurred.</t>
+  </si>
+  <si>
+    <t>Public Service ICT Standards</t>
+  </si>
+  <si>
+    <t>Technical Insights</t>
+  </si>
+  <si>
+    <t>Republic of Malawi</t>
+  </si>
+  <si>
+    <t>https://digmap.pppc.mw/download/ict-standards/</t>
+  </si>
+  <si>
+    <t>The Public Service ICT Standards focus on mainstreaming of ICT in the public service to ensure that government realises the potential of ICT in the efficient management of the public service and improvement of delivery of services to the general public. The standards have been developed for specific critical areas of the Public Service</t>
+  </si>
+  <si>
+    <t>National Broadband Strategy 2019-2023</t>
+  </si>
+  <si>
+    <t>Government of Malawi</t>
+  </si>
+  <si>
+    <t>https://digmap.pppc.mw/download/national-broadband-strategy/</t>
+  </si>
+  <si>
+    <t>This document presents the National Broadband Strategy for Malawi for the period 2019 – 2023. It identifies realistic and appropriate targets for broadband service delivery in Malawi for the period of the Strategy separated between urban and rural areas</t>
+  </si>
+  <si>
+    <t>Data Protection Bill, 2021</t>
+  </si>
+  <si>
+    <t>https://digmap.pppc.mw/download/pppc-data-protection-bill/</t>
+  </si>
+  <si>
+    <t>This Bill seeks to provide a comprehensive legislative framework for the protection and security of personal data, consolidate data protection provisions currently found in various Acts of Parliament, and protect the digital privacy of individuals without hampering social and economic development in Malawi.</t>
+  </si>
+  <si>
+    <t>Digital Skills Ecosystem and Gap Assessment in Malawi</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young LLP</t>
+  </si>
+  <si>
+    <t>https://digmap.pppc.mw/download/pppc-digital-skills-ecosystem-and-gap-assessment-for-malawi/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study aims to aims to- address information gap, highlight shortages of digital skills, assess the adequacy of supply vis a vis the potential need for digitally skilled manpower, assess the current ICT infrastructure in the education and training sector and help frame strategies to address unemployment through integrated digital solutions. </t>
+  </si>
+  <si>
+    <t>Electronic Transactions and Cyber Security Act</t>
+  </si>
+  <si>
+    <t>MalawiLII</t>
+  </si>
+  <si>
+    <t>https://malawilii.org/akn/mw/act/2016/33/eng@2017-12-31</t>
+  </si>
+  <si>
+    <t>An Act to make provision for electronic transactions; for the establishment and functions of the Malawi Computer Emergency Response Team (MCERT); to make provision for criminalizing offences related to computer systems and information communication technologies; and provide for investigation, collection and use of electronic evidence</t>
+  </si>
+  <si>
+    <t>Malawi e-Visa System</t>
+  </si>
+  <si>
+    <t>https://evisa.gov.mw/</t>
+  </si>
+  <si>
+    <t>Malawi e-Permit Portal</t>
+  </si>
+  <si>
+    <t>https://epermit.gov.mw/</t>
+  </si>
+  <si>
+    <t>Cybersecurity Act 2020</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Republic of Ghana</t>
+  </si>
+  <si>
+    <t>Cyber Security Authority</t>
+  </si>
+  <si>
+    <t>https://csdsafrica.org/wp-content/uploads/2021/08/Cybersecurity-Act-2020-Act-1038.pdf</t>
+  </si>
+  <si>
+    <t>AN ACT to establish the Cyber Security Authority; to regulate cybersecurity activities in the country; to promote the development of cybersecurity in the country and to provide for related matters.</t>
+  </si>
+  <si>
+    <t>Critical Information Infrastructure, Directive</t>
+  </si>
+  <si>
+    <t>https://www.csa.gov.gh/resources/Directive_CII.pdf</t>
+  </si>
+  <si>
+    <t>The Directive provides the baseline information and cybersecurity requirements for all designated CIIs (critical information infrastructures), irrespective of the maturity level of the CII Sector or the CII institution.</t>
+  </si>
+  <si>
+    <t>Data Protection Act, 2012</t>
+  </si>
+  <si>
+    <t>Data Protection Commission Ghana</t>
+  </si>
+  <si>
+    <t>https://www.dataprotection.org.gh/</t>
+  </si>
+  <si>
+    <t>AN ACT to establish a Data Protection Commission, to protect the privacy of the individual and personal data by regulating the processing of personal information, to provide the process to obtain, hold, use or disclose personal information and for related matters.</t>
+  </si>
+  <si>
+    <t>Electronic Transactions Act, 2008</t>
+  </si>
+  <si>
+    <t>Research ICT Africa</t>
+  </si>
+  <si>
+    <t>https://www.researchictafrica.net/countries/ghana/Electronic_Transactions_Act_no_772:2008.pdf</t>
+  </si>
+  <si>
+    <t>An Act to provide for the regulation of electronic commuications and related transactions and to provide for connected purposes</t>
+  </si>
+  <si>
+    <t>Electronic Communications Act, 2008</t>
+  </si>
+  <si>
+    <t>National Information Technology Agency</t>
+  </si>
+  <si>
+    <t>https://nita.gov.gh/theevooc/2017/12/Electronic-Communications-Act-775.pdf</t>
+  </si>
+  <si>
+    <t>AN ACT to provide for the regulation of electronic communications, the regulation of broadcasting, the use of the electro-magnetic spectrum and for related matters.</t>
+  </si>
+  <si>
+    <t>National Information Technology Agency Act</t>
+  </si>
+  <si>
+    <t>Ministry of Communications &amp; Digitalisation</t>
+  </si>
+  <si>
+    <t>https://nita.gov.gh/theevooc/2023/07/NITA-Exclusive-Subsidiary-Legislation-RESUBMITTED-SIGNED.pdf</t>
+  </si>
+  <si>
+    <t>An Act to establish the National Information Technology Agency to regulate information communications technology and to provide for related services</t>
+  </si>
+  <si>
+    <t>ESMF For eTransform Ghana Project</t>
+  </si>
+  <si>
+    <t>https://nita.gov.gh/theevooc/2017/12/ESMF-For-eTransform-Ghana-Project.pdf</t>
+  </si>
+  <si>
+    <t>The electronic transformation intervention is aimed at changing the way government functionaries provide services. It will harness information technologies (such as Wide Area Networks (WAN), the Internet, and mobile computing) to transform service operations for a number of government agencies including the health, educational, judiciary, sectors etc. It is major components include- Component 1: Enabling Environment for Electronic Government; Component 2: Common Services and Infrastructure for Electronic Government; Component 3: Scale up of e-Services and Applications; Component 4: Project Management Support.</t>
+  </si>
+  <si>
+    <t>eGovernment Interoperability Framework</t>
+  </si>
+  <si>
+    <t>https://nita.gov.gh/theevooc/2017/12/Ghana-eGovernment-Interoperability-Framework.pdf</t>
+  </si>
+  <si>
+    <t>The Government of Ghana‘s e-GIF strategy is driven by the Ghana Government Enterprise Architecture (GGEA), which is designed for increased interoperability through the principles of shared infrastructure services, service oriented architecture and event driven architecture. These principles are essential ingredients for interoperability and the GGEA is designed to ensure that information for government services is available anytime, anywhere, to anyone who is authorised to access it, from many channels.</t>
+  </si>
+  <si>
+    <t>Ghana ICT4AD Policy</t>
+  </si>
+  <si>
+    <t>https://nita.gov.gh/theevooc/2017/12/Ghana-ICT4AD-Policy.pdf</t>
+  </si>
+  <si>
+    <t>A policy statement for the realization of the vision to transform Ghana into an information-rich knowledge-based society and economy through the development, deployment, and exploitation of ICTs within the economy and society</t>
+  </si>
+  <si>
+    <t>Ghana Government Enterprise Architecture Framework</t>
+  </si>
+  <si>
+    <t>https://nita.gov.gh/theevooc/2017/12/Ghana-Government-Enterprise-Archtecture.pdf</t>
+  </si>
+  <si>
+    <t>The EA supports transformation by presenting the desired future state, ensuring alignment of the initiative with the desired end-goals of the MDAs.</t>
+  </si>
+  <si>
+    <t>Ghana Government eGIF Implementation Guide</t>
+  </si>
+  <si>
+    <t>https://nita.gov.gh/theevooc/2017/12/e-GIF-Implementation-Guide.pdf</t>
+  </si>
+  <si>
+    <t>The purpose of the report is to define how the Government of Ghana (GoG) through a central authority (e.g. GICTeD) and MDAs will implement the recommendations provided in the Ghana Government eGIF policies and standards report. The report defines the implementation strategy, which describes the overall approach to the transformation activity. The ultimate goal of the implementation strategy is to make the amendments necessary to the MDA ICT environments to fulfil their e-government objectives while causing the least amount of disruption to business operations. The report also describes the different types of environments, the technical challenges and the transition approaches available to the MDAs. The main objective of the report is to provide a guide to planning for eGIF transformation activities.</t>
+  </si>
+  <si>
+    <t>Ghana's Digital Services and Payments Platform</t>
+  </si>
+  <si>
+    <t>https://www.ghana.gov.gh/</t>
+  </si>
+  <si>
+    <t>Ghana's CitizenApp</t>
+  </si>
+  <si>
+    <t>https://www.citizen.gov.gh/</t>
+  </si>
+  <si>
+    <t>Digital Mauritius 2030 Strategic Plan</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Ministry of Technology, Communication, &amp; Innovation</t>
+  </si>
+  <si>
+    <t>Mauritius Digital Promotion Agency</t>
+  </si>
+  <si>
+    <t>https://mdpa.govmu.org/mdpa/wp-content/uploads/2024/04/DigitalMauritius2030.pdf</t>
+  </si>
+  <si>
+    <t>In line with the Mauritius Vision 2030 that calls for an intelligent and smart Mauritius and welcoming the capital importance of digital transformation for growth and competitiveness, the Digital Mauritius 2030 Strategic Plan lays emphasis on the formulation for an innovative, effective and sustainable Public Sector and at the same time creating an enabling environment for business facilitation development. Emerging technologies like Artificial Intelligence, Blockchain, Robotics, Internet of Things, FinTech and Big Data are also expected to assist in the digital transformation process.</t>
+  </si>
+  <si>
+    <t>Digital Government Transformation Strategy 2018-2022</t>
+  </si>
+  <si>
+    <t>https://mdpa.govmu.org/mdpa/wp-content/uploads/2024/04/DigitalGovernmentTransformation.pdf</t>
+  </si>
+  <si>
+    <t>The e-Government Strategy was formulated in 2013 to re-engineer the e-Government agenda and to rethink delivery of its services and operations where citizens are given pride of place. Five years onward, around 75 % of the e-Government Strategy has been implemented and helped to further integrate technology in support of government operations and service delivery. Policies and projects in areas of data sharing, open source, open data, e-Participation, e-Payment, digital signatures, document management system, e-Procurement, mobile apps among others have reformed how Government transacts with its stakeholders while improving international digital indices.</t>
+  </si>
+  <si>
+    <t>Mauritius National Export Strategy - Software Development Sector 2017-2021</t>
+  </si>
+  <si>
+    <t>Republic of Mauritius</t>
+  </si>
+  <si>
+    <t>https://mdpa.govmu.org/mdpa/wp-content/uploads/2024/04/MauritiusNationalExportStrategy.pdf</t>
+  </si>
+  <si>
+    <t>This is the Mauritius stratgy to help reinvent the software development industry through national exports.</t>
+  </si>
+  <si>
+    <t>Mauritius Artificial Intelligence Strategy 2018</t>
+  </si>
+  <si>
+    <t>https://mdpa.govmu.org/mdpa/wp-content/uploads/2024/04/MauritiusAIStrategy2018.pdf</t>
+  </si>
+  <si>
+    <t>This is the Mauritius strategy for Artificial Intelligence.</t>
+  </si>
+  <si>
+    <t>Cybercrime Strategy 2017-2019</t>
+  </si>
+  <si>
+    <t>https://mdpa.govmu.org/mdpa/wp-content/uploads/2024/04/CybercrimeStrategy2017-2019.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybercrime Strategy is required that will enable law enforcement agencies in Mauritius to detect, handle and prosecute cybercriminals and the judiciary to understand this highly technical and complex area whenever cases are brought before Courts. The Cybercrime Strategy will also support the existing National Cyber Security Strategy, hence forming part of the overall approach to provide rapid response to cybercrime, thereby securing our Mauritian cyber-territory. The measures outlined in the Cybercrime Strategy will set out the Government’s approach to fight cybercrime through improved law enforcement capability, effective criminal justice framework and active international engagement. </t>
+  </si>
+  <si>
+    <t>Open Source Software Strategy for the Republic of Mauritius</t>
+  </si>
+  <si>
+    <t>https://mdpa.govmu.org/mdpa/wp-content/uploads/2024/04/OpenSourceSoftwareStrategy.pdf</t>
+  </si>
+  <si>
+    <t>This is the open source strategy for Mauritius which states that the future development of information society in the Republic of Mauritius shall be based on a shared and open knowledge-based society, open standards, technological neutrality and broadly available ICT to empower citizens and the private sector.</t>
+  </si>
+  <si>
+    <t>Mauritius Citizen Portal</t>
+  </si>
+  <si>
+    <t>https://www.csu.mu/index.php</t>
+  </si>
+  <si>
+    <t>Nigeria National Digital Economy and Policy</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Federal Ministry of Communications and Digital Economy</t>
+  </si>
+  <si>
+    <t>https://ndpc.gov.ng/Files/Policy-National_Digital_Economy_Policy_and_Strategy.pdf</t>
+  </si>
+  <si>
+    <t>This Digital Economy Policy and Strategy document aims to provide a plan for using digital technology as a platform for stimulating growth in all sectors of the economy through the development of a digital economy for the country.</t>
+  </si>
+  <si>
+    <t>Nigeria Data Protection Act</t>
+  </si>
+  <si>
+    <t>https://ndpc.gov.ng/Files/Nigeria_Data_Protection_Act_2023.pdf</t>
+  </si>
+  <si>
+    <t>This document is the National Data Protection Act of Nigeria</t>
+  </si>
+  <si>
+    <t>Nigeria Data Protection Strategy and Roadmap</t>
+  </si>
+  <si>
+    <t>https://ndpc.gov.ng/Files/NDPB_Strategic_RoadMap_Action_Plan.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria has already established a framework for this trust with the National Data Protection Regulation (NDPR) and further strengthened its legal and institutional framework by adopting the Data Protection Act, in line with international standards and promoting privacy, as a fundamental right and social value. Therefore, the Strategic Roadmap and Action Plan (SRAP) 2023-2027, to build on this momentum, provides the impetus for articulating and implementing existing and new policies in the data privacy sector. </t>
+  </si>
+  <si>
+    <t>Nigeria Data Protection: Implementation Framework</t>
+  </si>
+  <si>
+    <t>https://ndpc.gov.ng/Files/ImplementationFramework.pdf</t>
+  </si>
+  <si>
+    <t>The NDPR is at present the most comprehensive regulatory framework on data protection in Nigeria. In response to stakeholders encouraging NITDA to ensure the effective implementation and enforcement of the Regulation, we have also developed this NDPR Implementation Framework as a guide to assist Data Controllers and Data Administrators understand the controls and measures they need to introduce into their environments to comply with the NDPR.</t>
+  </si>
+  <si>
+    <t>Rwanda National Digital Talent Policy</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Republic of Rwanda</t>
+  </si>
+  <si>
+    <t>MINICT</t>
+  </si>
+  <si>
+    <t>https://www.minict.gov.rw/index.php?eID=dumpFile&amp;t=f&amp;f=102224&amp;token=ca33b69c454ac5271fdb90428fe295802f210276</t>
+  </si>
+  <si>
+    <t>Rwanda’s!National!Digital!Talent!policy!aims!to!increase!digital!literacy!and!skills!and!across! all levels!of!Rwanda!society!both!in! terms!of!quality!and!quantity.! Implementation!of!this! nation1wide digital!literacy!programme linked!to!e1government!and!e1business!services!will! significantly! benefit Rwandan! citizens,! attract! global! talents! and! drive! progress! toward! achieving! the! country’s! Economic!Development and! Poverty!Reduction! Strategy! (EDPRS)! targets and!beyond.</t>
+  </si>
+  <si>
+    <t>An Integrated ICT-led Socio-Economic Development Policy and Plan for Rwanda</t>
+  </si>
+  <si>
+    <t>https://www.minict.gov.rw/index.php?eID=dumpFile&amp;t=f&amp;f=92164&amp;token=9d676844e199d9d5e7310a16ffee8da58cb26541</t>
+  </si>
+  <si>
+    <t>This document is the Integrated National ICT Policy for Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Artificial Intelligence Policy </t>
+  </si>
+  <si>
+    <t>https://www.minict.gov.rw/index.php?eID=dumpFile&amp;t=f&amp;f=67550&amp;token=6195a53203e197efa47592f40ff4aaf24579640e</t>
+  </si>
+  <si>
+    <t>The National Artificial Intelligence Policy for the Republic of Rwanda serves as a roadmap to enable Rwanda to harness the benefits of AI and mitigate its risks. Building on the mission of the Vision 2050, Smart Rwanda Master Plan and other key national plans and policies, it equips Rwanda to harness AI for sustainable and inclusive growth. By mobilizing local, regional, and international stakeholders, it positions Rwanda to become a leading African Innovation Hub and Africa’s Centre of Excellence in Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>AI Readiness and Maturity Framework for Rwanda</t>
+  </si>
+  <si>
+    <t>https://www.minict.gov.rw/index.php?eID=dumpFile&amp;t=f&amp;f=85301&amp;token=f82bac29a37d38769b37b356f37d137cb9eede03</t>
+  </si>
+  <si>
+    <t>The Artificial Intelligence (AI) Readiness and Maturity Assessment Framework consists of a data-driven tool to monitor the readiness and maturity of Rwanda towards implementing its national AI policy. The framework is supported by a dynamic dashboard that helps visualize the current level of AI readiness of the country as well as progress over time.</t>
+  </si>
+  <si>
+    <t>The National Broadband Policy and Strategy</t>
+  </si>
+  <si>
+    <t>https://www.minict.gov.rw/index.php?eID=dumpFile&amp;t=f&amp;f=55955&amp;token=4f911fb560969db5f90a30e7247393d25ba8d6c9</t>
+  </si>
+  <si>
+    <t>The broadband policy vision aims to accelerate Rwanda into a competitive and innovative global digital economy, through accessible and quality broadband services. Policy objectives</t>
+  </si>
+  <si>
+    <t>Rwanda Fintech Strategy 2022–2027</t>
+  </si>
+  <si>
+    <t>https://www.minict.gov.rw/index.php?eID=dumpFile&amp;t=f&amp;f=41306&amp;token=d582a81725e7b8289f1579fd34e9dbc40b8ad087</t>
+  </si>
+  <si>
+    <t>The Government of Rwanda has adopted a five-year fintech strategy for Rwanda to systematically and holistically support the fintech ecosystem in the country, to maximise the potential that fintech holds for economic growth and socio-economic transformation and to mitigate its potential risk. This document outlines the rationale for the strategy, it provides the structure responsible for implementing the strategy, it identifies the interventions and activities required to successfully implement the strategy, and it articulates what success would look like for the strategy</t>
+  </si>
+  <si>
+    <t>National Cyber Security Strategic Plan</t>
+  </si>
+  <si>
+    <t>https://www.minict.gov.rw/index.php?eID=dumpFile&amp;t=f&amp;f=14150&amp;token=0b33637cdb68faff93a156d5a7fdb43a51ff8b20</t>
+  </si>
+  <si>
+    <t>This document aims to provide an implementation guidance of the defined National Cyber Security Policy (NCSP). Specifically it defines the establishment of a National cyber security Agency, new cyber security initiatives and priorities, roles and responsibilities for parties who will be involved in the implementation and financial implication.</t>
+  </si>
+  <si>
+    <t>National Cyber Security Policy</t>
+  </si>
+  <si>
+    <t>https://www.minict.gov.rw/index.php?eID=dumpFile&amp;t=f&amp;f=14149&amp;token=e52639123cc23fbb644ea5b6b7a21212abef6c31</t>
+  </si>
+  <si>
+    <t>Given the heavy investment in the ICT infrastructure to support its economic development goals, it is imperative that infrastructure be resilient and secure against cyber threats. The first National Cyber Security Policy for Rwanda to establish an environment that shall assure the trust and confidence while using ICT facilities and ensure that Rwanda is self-reliantly able to protect its interests and enforce national security. This policy will guarantee the confidentiality and integrity of information assets and sensitive information of Government, Businesses and individuals.</t>
+  </si>
+  <si>
+    <t>Rwanda Child Online Protection Policy</t>
+  </si>
+  <si>
+    <t>https://www.minict.gov.rw/index.php?eID=dumpFile&amp;t=f&amp;f=1106&amp;token=5b64ad32319780612bdf9d25c59314eb3b662c48</t>
+  </si>
+  <si>
+    <t>The Internet and associated digital technologies provide opportunities for social and economic transformations that benefit all sections of Rwanda’s society, including children. However, the use of digital technologies comes with some known risks and harms for children. The Rwanda Child Online Protection Policy (“the COP Policy”) is designed to mitigate against those risks and harms, and to deliver a framework that meets children’s needs and fulfils their rights, while enabling them to safely and confidently navigate the digital environment.</t>
+  </si>
+  <si>
+    <t>Rwanda e-Government Portal</t>
+  </si>
+  <si>
+    <t>https://www.gov.rw/</t>
+  </si>
+  <si>
+    <t>Rwanda Citizen Portal</t>
+  </si>
+  <si>
+    <t>https://irembo.gov.rw/home/citizen/all_services?lang=en</t>
   </si>
   <si>
     <t>Countries</t>
   </si>
   <si>
-    <t>Demographic Information</t>
-  </si>
-  <si>
-    <t>Political Priorities</t>
-  </si>
-  <si>
-    <t>Digital Landscape</t>
-  </si>
-  <si>
-    <t>Digital Development Strategy</t>
-  </si>
-  <si>
-    <t>Digital Development Policy</t>
-  </si>
-  <si>
-    <t>Data Strategy</t>
-  </si>
-  <si>
-    <t>Data Policy</t>
-  </si>
-  <si>
-    <t>Enterprise Architecture Framework</t>
-  </si>
-  <si>
-    <t>Cybersecurity Strategy</t>
-  </si>
-  <si>
-    <t>Cyberysecurity Policy</t>
-  </si>
-  <si>
-    <t>E-government interoperability framework</t>
-  </si>
-  <si>
-    <t>Digital Payments Strategy</t>
-  </si>
-  <si>
-    <t>ICT Regulation</t>
-  </si>
-  <si>
-    <t>E-government portal</t>
-  </si>
-  <si>
-    <t>National Digital ID</t>
-  </si>
-  <si>
-    <t>Data Portal</t>
-  </si>
-  <si>
-    <t>List 2'!B16</t>
-  </si>
-  <si>
-    <t>List 2'!B18</t>
-  </si>
-  <si>
-    <t>List 2'!B19</t>
-  </si>
-  <si>
-    <t>List 2'!B17</t>
-  </si>
-  <si>
-    <t>List 2'!B20</t>
-  </si>
-  <si>
-    <t>Sierra Leone has a population of 28.6 million with a GDP of $4.09  billion (per capita $475.8) and an economic growth predicted to be 3,5%. The unemployment rate is 3,2% and nationally the poverty rate in 2022 was recorded to be 26,1%. Access to electricty is 27,5%. Women make up 49,9% of the population (men 50,1%), have a labour force participation rate of 51.5% (among males it is 56.3%) and approximately 40,3% have access to financial institution accounts (compared to 51,7% of men)</t>
-  </si>
-  <si>
-    <t>President Julius Maada Bio commenced his second term following electoral victory in June 2023 under the banner of the Sierra Leone People's Party During his first presidential term key digital milestones achieved included the development of a national digital development policy, National Fibre backbone extension and increasing internet access from over 300 thousand users to just over 2.6 million users. The President launched the Medium-Term National Development Plan for  2024-2030 in January this year, which highlights targets such as increasing access to digital financial services from 32% to 60% by 2030, completing the digital migration of the public service by 2026, growing the digital economy through increasing access to 50% by 2030 and building robust data systems to bolster the agriculture sector (and mitigate the impact of climate change. 
-The Ministry of Information and Communications is led by Minister Salima Mormorna Bah, tasked with leading the execution of the Sierra Leone National Digital Development Strategy. The document highlights the desire to foster alignment with the regional and international instruments such as the ECOWAS Supplementary Act on Personal Data Protection and the EU General Data Protection Regulation (GDPR), and sets out four pillars as part of it’s roadmap predominantly focussed on cybersecurity but also encouraging data sharing. With regards to the latter, specific objectives include establishing a national Data Centre, enforcing open data polices to induce iteroperability and enforcing the “commercial rights of the use of personal data of Sierra Leoneans”. There is also a draft data protection bill awaiting validation but Sierra Leone does not have a Data Protection Act and therefore has no Data Protection Authority.
-Sierra Leone belongs to the Community of Sahel–Saharan States (CEN–SAD) and the Economic Community of West African States (ECOWAS).</t>
-  </si>
-  <si>
-    <t>ITU estimates that 30% of the population has internet access (although GSMA data reports reflects that mobile internet use is at 21,5%)and that in terms of affordability, internet can cost between 12,5% and 26,5% of GNI. A World Bank project valued at $50 million (launched in September 2023) is currently underway to expand access, enhance skills and establish digital public services.
-The Digital Development Policy concedes that whilst data is being generated by MDAs, data sharing is currently hamstrung by a lack of standardization and to overcome this obstacle policy objectives include goals such as establishing data protection measures, promoting enhanced access and reuse of public data and encouraging the adoption of systems for increased interoperability. Data for Decision-making is the focus of the Directorate of Science, Innovation and Technology with 16 projects completed thus far.
-Sierra Leone initiated it’s Digital ID journey in 2016, with 90% of residents registered and recently completed a pilot study with MOSIP.  As a board member of the Digital Public Goods Alliance, Sierra Leone is a supporter of open-source software and it is the objective of the National Civil Registration Authority (NCRA) to have the digital ID layer for the purposes of managing identity and sharing statistics.
-In May 2023, President Bio launched Sierra Leone’s National Payment switch in so doing enabling the interoperability of six national banks (as well as different payment channels including mobile money, microfinance and fin tech)  and as well as ensuring that social welfare and pension benefits can be directly disbursed to beneficiaries. This financial infrastructure was funded by the World Bank, and enabled residents to use just one card to send/receive money when they previously needed to have separate banking accounts to transact with family/merchants. The next phase of the project will be to enable fast payments to further improve financial inclusion. The country is currently characterised by high levels of mobile money usage (6.5 million) with approximately only 2.1 million having access to (as well as trust in) commercial bank accounts. In an effort to increase women’s financial inclusion (from 25%), UNCDF launched a programme to train more female mobile money agents and launched a platform to increase access to digital loans</t>
+    <t>Phase 1 shortlist (Y/N)</t>
+  </si>
+  <si>
+    <t>Phase 1 Done (Y/N)</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>S. No.</t>
@@ -1836,6 +2404,9 @@
   </si>
   <si>
     <t>Global Partnership on Artificial Intelligence - Data Governance</t>
+  </si>
+  <si>
+    <t>https://gpai.ai/projects/data-governance/</t>
   </si>
   <si>
     <t>CSEA Africa</t>
@@ -1890,7 +2461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1902,7 +2473,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1939,22 +2515,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="-Apple-System"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1964,10 +2553,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Avenir"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2001,38 +2590,48 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -31956,7 +32555,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2024-03-18T21:20:25.33" personId="{CAC9BA97-BE56-0F42-98AF-A1ADDA054206}" id="{EC50DA25-DCB4-074F-B21A-7CA863673F74}">
+  <threadedComment ref="E1" dT="2024-03-18T21:20:25.33" personId="{CAC9BA97-BE56-0F42-98AF-A1ADDA054206}" id="{EC50DA25-DCB4-074F-B21A-7CA863673F74}">
     <text xml:space="preserve">Multiselect not working
 </text>
   </threadedComment>
@@ -31976,8 +32575,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -32014,7 +32613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="80.099999999999994">
+    <row r="2" spans="1:7" ht="91.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -32037,7 +32636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="144">
+    <row r="3" spans="1:7" ht="152.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -32258,7 +32857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="159.94999999999999">
+    <row r="13" spans="1:7" ht="167.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -32281,7 +32880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="128.1">
+    <row r="14" spans="1:7" ht="137.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -32304,7 +32903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="96">
+    <row r="15" spans="1:7" ht="106.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -32373,7 +32972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="144">
+    <row r="18" spans="1:7" ht="152.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -32614,7 +33213,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="144">
+    <row r="29" spans="1:7" ht="167.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -32742,1502 +33341,3844 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59C7389-FF0E-4A67-B0C5-EAE4DC89AF01}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="D118" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="62.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="11"/>
+    <col min="2" max="2" width="31.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="62.28515625" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>163</v>
       </c>
+      <c r="J1" s="10" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="80.099999999999994">
-      <c r="A2">
+    <row r="2" spans="1:10" ht="76.5">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="18">
+        <v>45063</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>169</v>
       </c>
+      <c r="J2" s="19" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="15.95">
-      <c r="A3">
+    <row r="3" spans="1:10">
+      <c r="A3" s="17">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="18">
+        <v>44741</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="12" t="s">
         <v>174</v>
       </c>
+      <c r="J3" s="19" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="128.1">
-      <c r="A4">
-        <f t="shared" ref="A4:A53" si="0">A3+1</f>
+    <row r="4" spans="1:10" ht="137.25">
+      <c r="A4" s="17">
+        <f t="shared" ref="A4:A81" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="20">
+        <v>45261</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="12" t="s">
         <v>179</v>
       </c>
+      <c r="J4" s="19" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="128.1">
-      <c r="A5">
+    <row r="5" spans="1:10" ht="137.25">
+      <c r="A5" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="E5" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>183</v>
       </c>
+      <c r="H5" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="80.099999999999994">
-      <c r="A6">
+    <row r="6" spans="1:10" ht="76.5">
+      <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44866</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="E6" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
         <v>188</v>
       </c>
+      <c r="H6" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="63.95">
-      <c r="A7">
+    <row r="7" spans="1:10" ht="60.75">
+      <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="20">
+        <v>44621</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>191</v>
+      <c r="E7" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="80.099999999999994">
-      <c r="A8">
+    <row r="8" spans="1:10" ht="91.5">
+      <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="20">
+        <v>44986</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>195</v>
+      <c r="E8" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="63.95">
-      <c r="A9">
+    <row r="9" spans="1:10" ht="60.75">
+      <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="18">
+        <v>44987</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>199</v>
+      <c r="E9" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="80.099999999999994">
-      <c r="A10">
+    <row r="10" spans="1:10" ht="76.5">
+      <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="21">
+        <v>45261</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="E10" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>204</v>
       </c>
+      <c r="H10" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" ht="128.1">
-      <c r="A11">
+    <row r="11" spans="1:10" ht="137.25">
+      <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="22">
+        <v>45355</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" t="s">
-        <v>202</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>207</v>
+      <c r="I11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="111.95">
-      <c r="A12">
+    <row r="12" spans="1:10" ht="121.5">
+      <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="22">
+        <v>45302</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="E12" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>212</v>
       </c>
+      <c r="H12" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" ht="48">
-      <c r="A13">
+    <row r="13" spans="1:10" ht="45.75">
+      <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="22">
+        <v>45355</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="E13" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="H13" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" ht="80.099999999999994">
-      <c r="A14">
+    <row r="14" spans="1:10" ht="91.5">
+      <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="B14" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="G14" t="s">
+      <c r="C14" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="H14" t="s">
+      <c r="E14" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
         <v>224</v>
       </c>
+      <c r="H14" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" ht="96">
-      <c r="A15">
+    <row r="15" spans="1:10" ht="106.5">
+      <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="B15" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="C15" s="18">
+        <v>43969</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="E15" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>230</v>
       </c>
+      <c r="H15" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" ht="96">
-      <c r="A16">
+    <row r="16" spans="1:10" ht="91.5">
+      <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="B16" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="H16" t="s">
+      <c r="C16" s="18">
+        <v>45049</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="G16" s="17" t="s">
         <v>236</v>
       </c>
+      <c r="H16" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>239</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" ht="48">
-      <c r="A17">
+    <row r="17" spans="1:10" ht="45.75">
+      <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H17" t="s">
-        <v>239</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="B17" s="17" t="s">
         <v>240</v>
       </c>
+      <c r="C17" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>243</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="80.099999999999994">
-      <c r="A18">
+    <row r="18" spans="1:10" ht="91.5">
+      <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" t="s">
-        <v>242</v>
-      </c>
-      <c r="G18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H18" t="s">
-        <v>243</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="B18" s="17" t="s">
         <v>244</v>
       </c>
+      <c r="C18" s="18">
+        <v>43772</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" ht="80.099999999999994">
-      <c r="A19">
+    <row r="19" spans="1:10" ht="91.5">
+      <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="18">
+        <v>43772</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F19" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" t="s">
-        <v>246</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>247</v>
+      <c r="H19" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.95">
-      <c r="A20">
+    <row r="20" spans="1:10">
+      <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" t="s">
-        <v>232</v>
-      </c>
-      <c r="F20" t="s">
-        <v>249</v>
-      </c>
-      <c r="G20" t="s">
-        <v>250</v>
-      </c>
-      <c r="H20" t="s">
-        <v>251</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="E20" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>252</v>
       </c>
+      <c r="H20" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="63.95">
-      <c r="A21">
+    <row r="21" spans="1:10">
+      <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" t="s">
-        <v>254</v>
-      </c>
-      <c r="F21" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="B21" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
         <v>257</v>
       </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="144">
-      <c r="A22">
-        <f>A21+1</f>
+    <row r="22" spans="1:10">
+      <c r="A22" s="17">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" t="s">
-        <v>255</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="B22" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="15.95">
-      <c r="A23">
+    <row r="23" spans="1:10" ht="76.5">
+      <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C23" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" t="s">
-        <v>254</v>
-      </c>
-      <c r="F23" t="s">
-        <v>255</v>
-      </c>
-      <c r="G23" t="s">
-        <v>255</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="C23" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="G23" s="17" t="s">
         <v>263</v>
       </c>
+      <c r="H23" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>265</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" ht="32.1">
-      <c r="A24">
+    <row r="24" spans="1:10" ht="152.25">
+      <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" t="s">
-        <v>254</v>
-      </c>
-      <c r="F24" t="s">
-        <v>255</v>
-      </c>
-      <c r="G24" t="s">
-        <v>255</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="B24" s="17" t="s">
         <v>266</v>
       </c>
+      <c r="C24" s="17">
+        <v>2023</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>268</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" ht="63.95">
-      <c r="A25">
+    <row r="25" spans="1:10">
+      <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" t="s">
-        <v>254</v>
-      </c>
-      <c r="F25" t="s">
-        <v>268</v>
-      </c>
-      <c r="G25" t="s">
-        <v>268</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="B25" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="C25" s="20">
+        <v>45139</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="I25" s="17" t="s">
         <v>270</v>
       </c>
+      <c r="J25" s="19" t="s">
+        <v>271</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" ht="80.099999999999994">
-      <c r="A26">
+    <row r="26" spans="1:10" ht="30.75">
+      <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="B26" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F26" t="s">
+      <c r="C26" s="13">
+        <v>2019</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G26" t="s">
-        <v>273</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="J26" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>275</v>
-      </c>
     </row>
-    <row r="27" spans="1:9" ht="207.95">
-      <c r="A27">
+    <row r="27" spans="1:10" ht="60.75">
+      <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="19">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C27" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" t="s">
-        <v>272</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="H27" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="G27" t="s">
-        <v>277</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="J27" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>279</v>
-      </c>
     </row>
-    <row r="28" spans="1:9" ht="63.95">
-      <c r="A28">
+    <row r="28" spans="1:10" ht="91.5">
+      <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="13">
+        <v>2023</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" t="s">
-        <v>272</v>
-      </c>
-      <c r="F28" t="s">
-        <v>277</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="H28" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="J28" s="19" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29">
+    <row r="29" spans="1:10" ht="30.75">
+      <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="D29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" t="s">
-        <v>272</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="C29" s="13">
+        <v>2022</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="J29" s="19" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" ht="111.95">
-      <c r="A30">
+    <row r="30" spans="1:10" ht="229.5">
+      <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>286</v>
-      </c>
-      <c r="C30" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="B30" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="F30" t="s">
+      <c r="C30" s="13">
+        <v>2023</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G30" t="s">
-        <v>288</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="J30" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
+    <row r="31" spans="1:10" ht="167.25">
+      <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="13">
+        <v>2023</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C31" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" t="s">
-        <v>287</v>
-      </c>
-      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
+    <row r="32" spans="1:10" ht="229.5">
+      <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" t="s">
-        <v>287</v>
+      <c r="B32" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2019</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
+    <row r="33" spans="1:10" ht="60.75">
+      <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>293</v>
-      </c>
-      <c r="C33" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33" t="s">
-        <v>287</v>
+        <v>297</v>
+      </c>
+      <c r="C33" s="17">
+        <v>2019</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
+    <row r="34" spans="1:10">
+      <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>294</v>
-      </c>
-      <c r="C34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" t="s">
-        <v>287</v>
-      </c>
+      <c r="B34" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
+    <row r="35" spans="1:10" ht="137.25">
+      <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" t="s">
-        <v>287</v>
+      <c r="B35" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="17">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="80.099999999999994">
-      <c r="A36">
+    <row r="36" spans="1:10" ht="121.5">
+      <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" t="s">
-        <v>297</v>
-      </c>
-      <c r="F36" t="s">
-        <v>298</v>
-      </c>
-      <c r="G36" t="s">
-        <v>299</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>301</v>
+      <c r="B36" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="17">
+        <v>2019</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="80.099999999999994">
-      <c r="A37">
+    <row r="37" spans="1:10">
+      <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>302</v>
-      </c>
-      <c r="C37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" t="s">
-        <v>297</v>
-      </c>
-      <c r="F37" t="s">
-        <v>298</v>
-      </c>
-      <c r="G37" t="s">
-        <v>299</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="B37" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="17">
+        <v>2020</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>304</v>
+      <c r="G37" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="80.099999999999994">
-      <c r="A38">
+    <row r="38" spans="1:10">
+      <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" t="s">
-        <v>297</v>
-      </c>
-      <c r="F38" t="s">
-        <v>298</v>
-      </c>
-      <c r="G38" t="s">
-        <v>299</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>306</v>
+      <c r="B38" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C38" s="17">
+        <v>2020</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="72.75" customHeight="1">
-      <c r="A39">
+    <row r="39" spans="1:10" ht="60.75">
+      <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>307</v>
-      </c>
-      <c r="C39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E39" t="s">
-        <v>297</v>
-      </c>
-      <c r="F39" t="s">
-        <v>298</v>
-      </c>
-      <c r="G39" t="s">
-        <v>299</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I39" s="13" t="s">
+      <c r="B39" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C39" s="20">
+        <v>43770</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>308</v>
       </c>
+      <c r="I39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" ht="48">
-      <c r="A40">
+    <row r="40" spans="1:10">
+      <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>309</v>
-      </c>
-      <c r="C40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" t="s">
-        <v>297</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="B40" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="18">
+        <v>43780</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>310</v>
+      <c r="G40" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
+    <row r="41" spans="1:10" ht="91.5">
+      <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>311</v>
-      </c>
-      <c r="C41" t="s">
-        <v>284</v>
-      </c>
-      <c r="E41" t="s">
-        <v>297</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>312</v>
+      <c r="B41" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" s="17">
+        <v>2019</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
+    <row r="42" spans="1:10" ht="91.5">
+      <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>313</v>
-      </c>
-      <c r="C42" t="s">
-        <v>284</v>
-      </c>
-      <c r="E42" t="s">
-        <v>297</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>314</v>
+      <c r="B42" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" s="17">
+        <v>2018</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
+    <row r="43" spans="1:10" ht="91.5">
+      <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>315</v>
-      </c>
-      <c r="C43" t="s">
-        <v>284</v>
-      </c>
-      <c r="E43" t="s">
-        <v>297</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>316</v>
+      <c r="B43" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C43" s="20">
+        <v>41671</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="128.1">
-      <c r="A44">
+    <row r="44" spans="1:10" ht="137.25">
+      <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>317</v>
-      </c>
-      <c r="C44" t="s">
-        <v>226</v>
-      </c>
-      <c r="D44" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" t="s">
-        <v>297</v>
-      </c>
-      <c r="F44" t="s">
-        <v>318</v>
-      </c>
-      <c r="G44" t="s">
-        <v>319</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>321</v>
+        <v>334</v>
+      </c>
+      <c r="C44" s="15">
+        <v>41730</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="144">
-      <c r="A45">
+    <row r="45" spans="1:10" ht="106.5">
+      <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>322</v>
-      </c>
-      <c r="C45" t="s">
-        <v>226</v>
-      </c>
-      <c r="D45" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" t="s">
-        <v>297</v>
-      </c>
-      <c r="F45" t="s">
-        <v>323</v>
-      </c>
-      <c r="G45" t="s">
-        <v>323</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>325</v>
+      <c r="B45" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C45" s="17">
+        <v>2013</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="80.099999999999994">
-      <c r="A46">
+    <row r="46" spans="1:10" ht="91.5">
+      <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>326</v>
-      </c>
-      <c r="C46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" t="s">
-        <v>327</v>
-      </c>
-      <c r="F46" t="s">
-        <v>328</v>
-      </c>
-      <c r="G46" t="s">
-        <v>329</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>331</v>
+      <c r="B46" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C46" s="20">
+        <v>38047</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="176.1">
-      <c r="A47">
+    <row r="47" spans="1:10">
+      <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>332</v>
-      </c>
-      <c r="C47" t="s">
-        <v>226</v>
-      </c>
-      <c r="D47" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F47" t="s">
-        <v>328</v>
-      </c>
-      <c r="G47" t="s">
-        <v>329</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="B47" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="128.1">
-      <c r="A48">
+    <row r="48" spans="1:10" ht="91.5">
+      <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>334</v>
-      </c>
-      <c r="C48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" t="s">
-        <v>327</v>
-      </c>
-      <c r="F48" t="s">
-        <v>328</v>
-      </c>
-      <c r="G48" t="s">
-        <v>329</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>335</v>
+      <c r="B48" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="128.1">
-      <c r="A49">
+    <row r="49" spans="1:10" ht="91.5">
+      <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>336</v>
-      </c>
-      <c r="C49" t="s">
-        <v>226</v>
-      </c>
-      <c r="D49" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" t="s">
-        <v>327</v>
-      </c>
-      <c r="F49" t="s">
-        <v>328</v>
-      </c>
-      <c r="G49" t="s">
-        <v>329</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>337</v>
+      <c r="B49" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="80.099999999999994">
-      <c r="A50">
+    <row r="50" spans="1:10" ht="91.5">
+      <c r="A50" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>338</v>
-      </c>
-      <c r="C50" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" t="s">
-        <v>327</v>
-      </c>
-      <c r="F50" t="s">
-        <v>328</v>
-      </c>
-      <c r="G50" t="s">
-        <v>329</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>339</v>
+      <c r="B50" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2023</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>355</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="48">
-      <c r="A51">
+    <row r="51" spans="1:10" ht="72.75" customHeight="1">
+      <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>340</v>
-      </c>
-      <c r="C51" t="s">
-        <v>226</v>
-      </c>
-      <c r="D51" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" t="s">
-        <v>327</v>
-      </c>
-      <c r="F51" t="s">
-        <v>328</v>
-      </c>
-      <c r="G51" t="s">
-        <v>329</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>341</v>
+      <c r="B51" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>357</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
+    <row r="52" spans="1:10" ht="45.75">
+      <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>342</v>
-      </c>
-      <c r="C52" t="s">
-        <v>284</v>
-      </c>
-      <c r="E52" t="s">
-        <v>327</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>343</v>
+      <c r="B52" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C52" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="159.94999999999999">
-      <c r="A53">
+    <row r="53" spans="1:10">
+      <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>344</v>
-      </c>
-      <c r="C53" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" t="s">
-        <v>176</v>
-      </c>
-      <c r="E53" t="s">
-        <v>327</v>
-      </c>
-      <c r="F53" t="s">
-        <v>328</v>
-      </c>
-      <c r="G53" t="s">
-        <v>329</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="B53" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="G54" s="11"/>
-      <c r="I54" s="2"/>
+    <row r="54" spans="1:10">
+      <c r="A54" s="17">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="17">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="1:10" ht="137.25">
+      <c r="A56" s="17">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2019</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="152.25">
+      <c r="A57" s="17">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="17">
+        <v>2022</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="91.5">
+      <c r="A58" s="17">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C58" s="20">
+        <v>44105</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="183">
+      <c r="A59" s="17">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C59" s="20">
+        <v>44105</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="137.25">
+      <c r="A60" s="17">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C60" s="17">
+        <v>2024</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="137.25">
+      <c r="A61" s="17">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C61" s="17">
+        <v>2023</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="91.5">
+      <c r="A62" s="17">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C62" s="17">
+        <v>2019</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45.75">
+      <c r="A63" s="17">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C63" s="20">
+        <v>44805</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="17">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="1:10" ht="167.25">
+      <c r="A65" s="17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="C65" s="18">
+        <v>45223</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30.75">
+      <c r="A66" s="17">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C66" s="18">
+        <v>44682</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="17">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C67" s="17">
+        <v>2009</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J67" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="60.75">
+      <c r="A68" s="17">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C68" s="18">
+        <v>2017</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="106.5">
+      <c r="A69" s="17">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C69" s="18">
+        <v>44809</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="76.5">
+      <c r="A70" s="17">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C70" s="18">
+        <v>44810</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="76.5">
+      <c r="A71" s="17">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C71" s="18">
+        <v>41640</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="60.75">
+      <c r="A72" s="17">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C72" s="20">
+        <v>44075</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="76.5">
+      <c r="A73" s="17">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="C73" s="20">
+        <v>44348</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="91.5">
+      <c r="A74" s="17">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="C74" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="91.5">
+      <c r="A75" s="17">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="C75" s="18">
+        <v>43100</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G75" t="s">
+        <v>427</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="17">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J76" s="17"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="17">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J77" s="17"/>
+    </row>
+    <row r="78" spans="1:10" ht="45.75">
+      <c r="A78" s="17">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C78" s="17">
+        <v>2020</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="60.75">
+      <c r="A79" s="17">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C79" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="60.75">
+      <c r="A80" s="17">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C80" s="17">
+        <v>2012</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="30.75">
+      <c r="A81" s="17">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C81" s="17">
+        <v>2008</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="45.75">
+      <c r="A82" s="17">
+        <f t="shared" ref="A82:A102" si="1">A81+1</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C82" s="17">
+        <v>2008</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45.75">
+      <c r="A83" s="17">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="152.25">
+      <c r="A84" s="17">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="C84" s="20">
+        <v>41456</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="121.5">
+      <c r="A85" s="17">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="60.75">
+      <c r="A86" s="17">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="C86" s="17">
+        <v>2003</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J86" s="19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45.75">
+      <c r="A87" s="17">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="C87" s="17">
+        <v>2009</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="198">
+      <c r="A88" s="17">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="C88" s="17">
+        <v>2009</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="17">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="17">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" spans="1:10" ht="137.25">
+      <c r="A91" s="17">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="152.25">
+      <c r="A92" s="17">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C92" s="17">
+        <v>2018</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="30.75">
+      <c r="A93" s="17">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="C93" s="17">
+        <v>2017</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J93" s="19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="17">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="C94" s="17">
+        <v>2018</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="167.25">
+      <c r="A95" s="17">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C95" s="17">
+        <v>2017</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="76.5">
+      <c r="A96" s="17">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="C96" s="18">
+        <v>41820</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J96" s="19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="17">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" spans="1:10" ht="60.75">
+      <c r="A98" s="17">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="C98" s="17">
+        <v>2020</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="17">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="C99" s="17">
+        <v>2023</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J99" s="17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="121.5">
+      <c r="A100" s="17">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="C100" s="17">
+        <v>2023</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="106.5">
+      <c r="A101" s="17">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C101" s="20">
+        <v>43891</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="121.5">
+      <c r="A102" s="17">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="C102" s="16">
+        <v>45492</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75">
+      <c r="A103" s="17">
+        <f t="shared" ref="A82:A119" si="2">A102+1</f>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>533</v>
+      </c>
+      <c r="C103" s="16">
+        <v>45324</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J103" s="19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="121.5">
+      <c r="A104" s="17">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="C104" s="16">
+        <v>45043</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="91.5">
+      <c r="A105" s="17">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="C105" s="16">
+        <v>45251</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="45.75">
+      <c r="A106" s="17">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>542</v>
+      </c>
+      <c r="C106" s="16">
+        <v>44852</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="137.25">
+      <c r="A107" s="17">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>545</v>
+      </c>
+      <c r="C107" s="16">
+        <v>44657</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="76.5">
+      <c r="A108" s="17">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>548</v>
+      </c>
+      <c r="C108" s="16">
+        <v>44211</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="137.25">
+      <c r="A109" s="17">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>551</v>
+      </c>
+      <c r="C109" s="17">
+        <v>2015</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="137.25">
+      <c r="A110" s="17">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>554</v>
+      </c>
+      <c r="C110" s="20">
+        <v>43617</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="17">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J111" s="17"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="17">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J112" s="17"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="17">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="17">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="17">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="17">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="17">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="17">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="17">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="17"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{8B753219-47D0-EC44-ACAE-2A3A011E8FEB}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{8B5F1F88-06A3-6C48-B68B-01B05ED2B0D9}"/>
-    <hyperlink ref="H9" r:id="rId3" xr:uid="{2BE8C109-B923-4E4A-ACCD-A69A3D2BF74A}"/>
-    <hyperlink ref="H10" r:id="rId4" xr:uid="{4D968DBB-BD9E-FF4F-8131-8B3FA85950C5}"/>
-    <hyperlink ref="H15" r:id="rId5" xr:uid="{CA6576D5-BB06-054A-9211-354F9DA3846B}"/>
-    <hyperlink ref="H24" r:id="rId6" display="https://ict.go.ug/wp-content/uploads/2019/03/Data-Protection-and-Privacy-Act-2019.pdf" xr:uid="{891A255B-9FC6-FA49-9D60-B783038CA1CA}"/>
-    <hyperlink ref="H12" r:id="rId7" xr:uid="{601D0902-6F6E-B147-934C-23555525E370}"/>
-    <hyperlink ref="H4" r:id="rId8" xr:uid="{182ACA09-9485-9A4D-A41F-692E3ACBCDC6}"/>
-    <hyperlink ref="H2" r:id="rId9" xr:uid="{76B04F88-7E40-6A49-83C6-AF740F052C8C}"/>
-    <hyperlink ref="H6" r:id="rId10" xr:uid="{B12313B3-D617-214E-8F9B-F7A5C9069E82}"/>
-    <hyperlink ref="H7" r:id="rId11" xr:uid="{43237A11-4A91-6044-93AE-9B273B86B5D1}"/>
-    <hyperlink ref="H36" r:id="rId12" xr:uid="{9A9763C9-FF7E-4A28-A539-F084F6AEE9B5}"/>
-    <hyperlink ref="H38" r:id="rId13" xr:uid="{4428BB5B-2D63-428B-84B1-2613FBAEA8F8}"/>
-    <hyperlink ref="H39" r:id="rId14" xr:uid="{F74A7AEA-A519-499D-A168-6204D439FBB2}"/>
-    <hyperlink ref="H37" r:id="rId15" xr:uid="{AA062234-B05D-4056-8CFB-EB9A8CD78293}"/>
-    <hyperlink ref="H40" r:id="rId16" xr:uid="{0269CA8C-DE1E-4A89-A6F1-D3E85203FDFA}"/>
-    <hyperlink ref="H41" r:id="rId17" xr:uid="{EE7B51FC-0D0F-4896-A3B1-6067C7C5B5B0}"/>
-    <hyperlink ref="H44" r:id="rId18" xr:uid="{1BA07D25-15AF-4DA3-A109-97D752FB6E4F}"/>
-    <hyperlink ref="H45" r:id="rId19" xr:uid="{CCA41063-DDB8-4586-A82F-B771B4A5EDEB}"/>
-    <hyperlink ref="H43" r:id="rId20" xr:uid="{A96A1838-A56F-4BDA-BB09-3B5EB6C31584}"/>
-    <hyperlink ref="H42" r:id="rId21" location="menu=topic" xr:uid="{F99E960B-960B-46CD-80A0-CAFBBC611BD6}"/>
-    <hyperlink ref="H29" r:id="rId22" xr:uid="{4FB6CF14-D0FC-41B8-811C-7F645CAEB8FF}"/>
-    <hyperlink ref="H46" r:id="rId23" xr:uid="{DEB38791-9AB6-49A8-A87F-2D1632914AD6}"/>
-    <hyperlink ref="H47" r:id="rId24" xr:uid="{6F9D2352-68D5-4C68-95DD-25E0BF677B31}"/>
-    <hyperlink ref="H48" r:id="rId25" xr:uid="{9275F912-ACAD-4665-9375-11903768B072}"/>
-    <hyperlink ref="H49" r:id="rId26" xr:uid="{5F45CA41-31DD-4B4C-9E3F-72409872ACDA}"/>
-    <hyperlink ref="H50" r:id="rId27" xr:uid="{91DC1F4B-1964-4B81-B4BB-C1EF00781D51}"/>
-    <hyperlink ref="H51" r:id="rId28" xr:uid="{7807D3C9-01FF-4F82-BFE7-A728CCB0555B}"/>
-    <hyperlink ref="H53" r:id="rId29" xr:uid="{6DD6C229-52D2-4976-9B0E-EFDFF58B3064}"/>
-    <hyperlink ref="H52" r:id="rId30" xr:uid="{7AA9B459-240A-4C50-B485-C3634B484D03}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{8B753219-47D0-EC44-ACAE-2A3A011E8FEB}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{8B5F1F88-06A3-6C48-B68B-01B05ED2B0D9}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{2BE8C109-B923-4E4A-ACCD-A69A3D2BF74A}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{4D968DBB-BD9E-FF4F-8131-8B3FA85950C5}"/>
+    <hyperlink ref="I15" r:id="rId5" xr:uid="{CA6576D5-BB06-054A-9211-354F9DA3846B}"/>
+    <hyperlink ref="I26" r:id="rId6" xr:uid="{891A255B-9FC6-FA49-9D60-B783038CA1CA}"/>
+    <hyperlink ref="I12" r:id="rId7" xr:uid="{601D0902-6F6E-B147-934C-23555525E370}"/>
+    <hyperlink ref="I4" r:id="rId8" xr:uid="{182ACA09-9485-9A4D-A41F-692E3ACBCDC6}"/>
+    <hyperlink ref="I2" r:id="rId9" xr:uid="{76B04F88-7E40-6A49-83C6-AF740F052C8C}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{B12313B3-D617-214E-8F9B-F7A5C9069E82}"/>
+    <hyperlink ref="I7" r:id="rId11" xr:uid="{43237A11-4A91-6044-93AE-9B273B86B5D1}"/>
+    <hyperlink ref="I48" r:id="rId12" xr:uid="{9A9763C9-FF7E-4A28-A539-F084F6AEE9B5}"/>
+    <hyperlink ref="I50" r:id="rId13" xr:uid="{4428BB5B-2D63-428B-84B1-2613FBAEA8F8}"/>
+    <hyperlink ref="I51" r:id="rId14" xr:uid="{F74A7AEA-A519-499D-A168-6204D439FBB2}"/>
+    <hyperlink ref="I49" r:id="rId15" xr:uid="{AA062234-B05D-4056-8CFB-EB9A8CD78293}"/>
+    <hyperlink ref="I52" r:id="rId16" xr:uid="{0269CA8C-DE1E-4A89-A6F1-D3E85203FDFA}"/>
+    <hyperlink ref="I53" r:id="rId17" xr:uid="{EE7B51FC-0D0F-4896-A3B1-6067C7C5B5B0}"/>
+    <hyperlink ref="I56" r:id="rId18" xr:uid="{1BA07D25-15AF-4DA3-A109-97D752FB6E4F}"/>
+    <hyperlink ref="I57" r:id="rId19" xr:uid="{CCA41063-DDB8-4586-A82F-B771B4A5EDEB}"/>
+    <hyperlink ref="I55" r:id="rId20" xr:uid="{A96A1838-A56F-4BDA-BB09-3B5EB6C31584}"/>
+    <hyperlink ref="I54" r:id="rId21" location="menu=topic" xr:uid="{F99E960B-960B-46CD-80A0-CAFBBC611BD6}"/>
+    <hyperlink ref="I34" r:id="rId22" xr:uid="{4FB6CF14-D0FC-41B8-811C-7F645CAEB8FF}"/>
+    <hyperlink ref="I58" r:id="rId23" xr:uid="{DEB38791-9AB6-49A8-A87F-2D1632914AD6}"/>
+    <hyperlink ref="I59" r:id="rId24" xr:uid="{6F9D2352-68D5-4C68-95DD-25E0BF677B31}"/>
+    <hyperlink ref="I60" r:id="rId25" xr:uid="{9275F912-ACAD-4665-9375-11903768B072}"/>
+    <hyperlink ref="I61" r:id="rId26" xr:uid="{5F45CA41-31DD-4B4C-9E3F-72409872ACDA}"/>
+    <hyperlink ref="I62" r:id="rId27" xr:uid="{91DC1F4B-1964-4B81-B4BB-C1EF00781D51}"/>
+    <hyperlink ref="I63" r:id="rId28" xr:uid="{7807D3C9-01FF-4F82-BFE7-A728CCB0555B}"/>
+    <hyperlink ref="I65" r:id="rId29" xr:uid="{6DD6C229-52D2-4976-9B0E-EFDFF58B3064}"/>
+    <hyperlink ref="I64" r:id="rId30" xr:uid="{7AA9B459-240A-4C50-B485-C3634B484D03}"/>
+    <hyperlink ref="I68" r:id="rId31" xr:uid="{6BD3938B-2827-47A0-A8A4-3CE0EBDBB398}"/>
+    <hyperlink ref="I69" r:id="rId32" xr:uid="{5CE05CBD-C7CA-4137-92AA-5DFF553D7BD7}"/>
+    <hyperlink ref="I70" r:id="rId33" xr:uid="{C8891C00-7BC2-442C-B124-191926A392F0}"/>
+    <hyperlink ref="I71" r:id="rId34" xr:uid="{D134252C-AE06-4013-88B7-77CF613A031A}"/>
+    <hyperlink ref="I72" r:id="rId35" xr:uid="{020F12C8-D923-47CD-BB56-19EF99F3CCC2}"/>
+    <hyperlink ref="I73" r:id="rId36" xr:uid="{62823B54-5738-4FC8-9264-72438258513F}"/>
+    <hyperlink ref="I74" r:id="rId37" xr:uid="{F3DBF387-DFC9-4070-904F-EE4EAA305296}"/>
+    <hyperlink ref="I75" r:id="rId38" xr:uid="{738C5997-8C37-48AD-86D4-3CF4DF9F7D96}"/>
+    <hyperlink ref="I76" r:id="rId39" xr:uid="{CD375536-53E7-4051-BFC5-0F52B7B5EB32}"/>
+    <hyperlink ref="I77" r:id="rId40" xr:uid="{EA719790-0F3C-43EE-8C94-F86606ECA3B8}"/>
+    <hyperlink ref="I78" r:id="rId41" xr:uid="{79145FCB-96E7-47EE-860C-E4563386CC20}"/>
+    <hyperlink ref="I79:I82" r:id="rId42" display="https://www.csa.gov.gh/resources.php" xr:uid="{7722653B-DFCD-437A-9E6F-D540813D1724}"/>
+    <hyperlink ref="I83:I86" r:id="rId43" display="https://nita.gov.gh/nita-resource-center/" xr:uid="{67C9132E-F28A-4AF2-8696-973AA6E7790D}"/>
+    <hyperlink ref="I87" r:id="rId44" xr:uid="{B58CDDAC-F1A2-476B-A2BA-A73519E99774}"/>
+    <hyperlink ref="I88" r:id="rId45" xr:uid="{6B408657-71C4-4769-ADFA-3B4B872948BC}"/>
+    <hyperlink ref="I89" r:id="rId46" xr:uid="{BAD587FD-56E1-4B8F-B88E-4FB50DC7411D}"/>
+    <hyperlink ref="I90" r:id="rId47" xr:uid="{36AD509F-1FA6-4B29-8D3B-C9474D324D0D}"/>
+    <hyperlink ref="I37" r:id="rId48" xr:uid="{5C08A954-AC03-4228-84D5-1D96156B1C66}"/>
+    <hyperlink ref="I38" r:id="rId49" xr:uid="{C3843D99-9F29-47F6-8281-669AE9734FE2}"/>
+    <hyperlink ref="I39" r:id="rId50" xr:uid="{65FE352B-C0BF-48F8-A94C-D841223AAAE9}"/>
+    <hyperlink ref="I40" r:id="rId51" xr:uid="{3104547C-CCF2-4C3E-9EC0-E4BD51372546}"/>
+    <hyperlink ref="I41" r:id="rId52" xr:uid="{1785811E-90AB-4742-AECD-67DA4A68C71C}"/>
+    <hyperlink ref="I42" r:id="rId53" xr:uid="{F41633B5-4882-4B41-8AAB-D32FBB83469B}"/>
+    <hyperlink ref="I43" r:id="rId54" xr:uid="{671429D3-B4F6-45B6-8442-CCBEFBEA4B9F}"/>
+    <hyperlink ref="I47" r:id="rId55" xr:uid="{85934F0A-B061-48C7-8A7A-6633F84424D5}"/>
+    <hyperlink ref="I91" r:id="rId56" xr:uid="{D0D90F3E-2E36-42BA-97CF-A41949CC9586}"/>
+    <hyperlink ref="I92:I96" r:id="rId57" display="https://mdpa.govmu.org/mdpa/index.php/publications/" xr:uid="{147AF608-799A-438D-A35F-D41E77527F15}"/>
+    <hyperlink ref="I92" r:id="rId58" xr:uid="{0F25A92D-E00C-471E-8911-58C5603932D2}"/>
+    <hyperlink ref="I93" r:id="rId59" xr:uid="{307B5761-FC45-4209-B7C5-6E4D7E1623F8}"/>
+    <hyperlink ref="I8" r:id="rId60" xr:uid="{1AF76194-DE89-46B7-BE0A-2B7BA09C1F5E}"/>
+    <hyperlink ref="I11" r:id="rId61" xr:uid="{B3C062FE-0ABD-49F0-89CE-33B1EDA5D00C}"/>
+    <hyperlink ref="I18" r:id="rId62" xr:uid="{E5AA3C1B-1550-47FB-A4BC-261895A365F0}"/>
+    <hyperlink ref="I19" r:id="rId63" xr:uid="{484E0F41-E5D0-4FAB-A2EB-0F29994365F2}"/>
+    <hyperlink ref="I21" r:id="rId64" xr:uid="{3AF0EEF4-E37C-4944-8D7C-8E59DCA5F289}"/>
+    <hyperlink ref="I22" r:id="rId65" xr:uid="{5E29F29A-AE13-470A-804A-56A117B3CD4F}"/>
+    <hyperlink ref="I28" r:id="rId66" xr:uid="{351B70B4-4875-4043-9633-88DB7E05369A}"/>
+    <hyperlink ref="I30" r:id="rId67" xr:uid="{2411077C-40E8-4306-A57F-D1092BFEB7FE}"/>
+    <hyperlink ref="I31" r:id="rId68" xr:uid="{A68F08B5-90DE-4BE9-AF54-CC7F0CB47852}"/>
+    <hyperlink ref="I29" r:id="rId69" xr:uid="{F229D163-DF63-4FBA-B54B-C76B399143CF}"/>
+    <hyperlink ref="I32" r:id="rId70" xr:uid="{CD231330-314D-41E3-8583-679FDA749A70}"/>
+    <hyperlink ref="I33" r:id="rId71" xr:uid="{E70DEDD2-F11F-4780-A62B-86769BFB76D2}"/>
+    <hyperlink ref="I36" r:id="rId72" xr:uid="{212657B9-8EF1-4184-AB1D-FBB31CBFA741}"/>
+    <hyperlink ref="I44" r:id="rId73" xr:uid="{1B9B03DD-72EF-43A1-AFCB-31E47E2F370A}"/>
+    <hyperlink ref="I45" r:id="rId74" xr:uid="{ED9DC9BD-70D8-4985-B3C6-187C5FE763DE}"/>
+    <hyperlink ref="I46" r:id="rId75" xr:uid="{D4905929-85AD-4097-94B4-9A71B6004781}"/>
+    <hyperlink ref="I66" r:id="rId76" xr:uid="{4CFAFE02-410E-4CEA-B7B4-A9F77DD24662}"/>
+    <hyperlink ref="I67" r:id="rId77" xr:uid="{C753CBC7-8E8F-4EAE-A31A-0AEB711B4487}"/>
+    <hyperlink ref="I79" r:id="rId78" xr:uid="{7514667C-FDEE-47C0-8872-9402701989B8}"/>
+    <hyperlink ref="I80" r:id="rId79" xr:uid="{2A5D1CEC-5295-4FA5-846C-86E0D5A4FD0A}"/>
+    <hyperlink ref="I81" r:id="rId80" xr:uid="{C9CC2749-6C24-4BC1-BB73-7254F8D39531}"/>
+    <hyperlink ref="I82" r:id="rId81" xr:uid="{97E4A33C-3C49-4C5C-A866-68FE95EEDAF0}"/>
+    <hyperlink ref="I83" r:id="rId82" xr:uid="{8DBA6D0A-0DFA-4E84-B215-35642FE7592D}"/>
+    <hyperlink ref="I84" r:id="rId83" xr:uid="{C3A9B5DA-7AA6-425E-855C-B1D2E6317B10}"/>
+    <hyperlink ref="I85" r:id="rId84" xr:uid="{B9741ADA-F58A-4954-8CCB-5FA2C3EB6557}"/>
+    <hyperlink ref="I86" r:id="rId85" xr:uid="{6656F00D-94C8-4DAF-AAD9-4EBC3641FECA}"/>
+    <hyperlink ref="I94" r:id="rId86" xr:uid="{792759E2-5D36-419B-A692-FFFBEC597978}"/>
+    <hyperlink ref="I95" r:id="rId87" xr:uid="{FB5BC836-530A-445D-92F9-E2C396447F72}"/>
+    <hyperlink ref="I96" r:id="rId88" xr:uid="{ED65951E-9978-4847-8B3D-3DCCE6D99215}"/>
+    <hyperlink ref="I97" r:id="rId89" xr:uid="{D7C5D172-714D-4C5F-AA0C-B76F55223F89}"/>
+    <hyperlink ref="I98" r:id="rId90" xr:uid="{195C5C0F-6317-4F46-A61E-70FB2F3B43BC}"/>
+    <hyperlink ref="I99" r:id="rId91" xr:uid="{FC4037A7-1DE6-4F43-B499-8359F14F0144}"/>
+    <hyperlink ref="I100" r:id="rId92" xr:uid="{1632AAFE-6376-4E9E-B2AB-26D4E2C41B53}"/>
+    <hyperlink ref="I101" r:id="rId93" xr:uid="{52207FAC-C69B-4A33-9229-9C7D62ACD396}"/>
+    <hyperlink ref="I102" r:id="rId94" xr:uid="{62754A09-5B5E-4CFE-A536-EA27F4E25877}"/>
+    <hyperlink ref="I103" r:id="rId95" xr:uid="{6ABF875F-9ABD-4E98-BD20-58E802F84ACF}"/>
+    <hyperlink ref="I104" r:id="rId96" xr:uid="{424317A5-E0D6-4A12-84A2-B1F13567E0E6}"/>
+    <hyperlink ref="I105" r:id="rId97" xr:uid="{59EED56F-688C-4248-857A-248590836C0B}"/>
+    <hyperlink ref="I106" r:id="rId98" xr:uid="{092803C4-CE0F-4776-A4B5-FCF905F9D53A}"/>
+    <hyperlink ref="I107" r:id="rId99" xr:uid="{955319E6-A7AE-4B87-96A5-A9C4FB80DE38}"/>
+    <hyperlink ref="I108" r:id="rId100" xr:uid="{6776021A-7D35-4CBB-97EC-021B5A328709}"/>
+    <hyperlink ref="I109" r:id="rId101" xr:uid="{0282E78D-F6E4-4500-9B12-CDA24E7F06FB}"/>
+    <hyperlink ref="I110" r:id="rId102" xr:uid="{FA98568D-62F1-4196-8B36-A4342F9F0F1C}"/>
+    <hyperlink ref="I111" r:id="rId103" xr:uid="{CE7954E2-053D-45B7-99D2-A5566A57EAFC}"/>
+    <hyperlink ref="I112" r:id="rId104" xr:uid="{E586AAB1-34EF-4B6E-A08E-E52B08F5FE20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId31"/>
+  <legacyDrawing r:id="rId105"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -34245,13 +37186,13 @@
           <x14:formula1>
             <xm:f>Tags!$B$4:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D40 D44:D51</xm:sqref>
+          <xm:sqref>E56:E63 E2:E52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8856FFA8-E284-EC4A-8020-89C40C39809C}">
           <x14:formula1>
             <xm:f>Tags!$A$4:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C65</xm:sqref>
+          <xm:sqref>D2:D126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -34260,437 +37201,407 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69E39E9-FEA5-4AF0-9C7F-0B7CB6BCB8A9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0030951-0855-4BFB-990A-13FFAB8E161B}">
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="6" width="27" customWidth="1"/>
-    <col min="7" max="10" width="32.85546875" customWidth="1"/>
-    <col min="11" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" customWidth="1"/>
-    <col min="17" max="17" width="25.42578125" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:3">
       <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="R2" s="9">
-        <v>1</v>
-      </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
+        <v>561</v>
+      </c>
+      <c r="B2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:3">
       <c r="A3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:3">
       <c r="A4" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:3">
       <c r="A5" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:3">
       <c r="A6" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:3">
       <c r="A7" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:3">
       <c r="A8" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:3">
       <c r="A9" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:3">
       <c r="A10" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:3">
       <c r="A11" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:3">
       <c r="A12" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:3">
       <c r="A13" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:3">
       <c r="A14" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
+      <c r="B14" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:3">
       <c r="A15" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:3">
       <c r="A16" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
+      <c r="B16" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:3">
       <c r="A17" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:3">
       <c r="A18" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:3">
       <c r="A19" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:3">
       <c r="A20" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:3">
       <c r="A21" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:3">
       <c r="A22" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>370</v>
+      <c r="B22" t="s">
+        <v>564</v>
+      </c>
+      <c r="C22" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:3">
       <c r="A23" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:3">
       <c r="A24" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
+      <c r="B24" t="s">
+        <v>564</v>
+      </c>
+      <c r="C24" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:3">
       <c r="A25" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
+      <c r="B25" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:3">
       <c r="A26" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:3">
       <c r="A27" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:3">
       <c r="A28" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
+      <c r="B28" t="s">
+        <v>564</v>
+      </c>
+      <c r="C28" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:3">
       <c r="A29" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:3">
       <c r="A30" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:3">
       <c r="A31" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:3">
       <c r="A32" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:3">
       <c r="A33" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
+      <c r="B33" t="s">
+        <v>564</v>
+      </c>
+      <c r="C33" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
+      <c r="B36" t="s">
+        <v>564</v>
+      </c>
+      <c r="C36" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
+      <c r="B41" t="s">
+        <v>564</v>
+      </c>
+      <c r="C41" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
+      <c r="B42" t="s">
+        <v>564</v>
+      </c>
+      <c r="C42" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
+      <c r="B44" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
-      <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="15.95">
+    <row r="46" spans="1:3">
       <c r="A46" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
       <c r="B46" t="s">
-        <v>371</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>373</v>
+        <v>564</v>
+      </c>
+      <c r="C46" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.95">
+    <row r="47" spans="1:3">
       <c r="A47" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
-      <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:3">
       <c r="A49" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:3">
       <c r="A50" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:3">
       <c r="A51" t="e" vm="48">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:3">
       <c r="A52" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
+      <c r="B52" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:3">
       <c r="A53" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:3">
       <c r="A54" t="e" vm="51">
         <v>#VALUE!</v>
       </c>
+      <c r="B54" t="s">
+        <v>564</v>
+      </c>
+      <c r="C54" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:3">
       <c r="A55" t="e" vm="52">
         <v>#VALUE!</v>
       </c>
+      <c r="B55" t="s">
+        <v>564</v>
+      </c>
+      <c r="C55" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:3">
       <c r="A56" t="e" vm="53">
         <v>#VALUE!</v>
       </c>
+      <c r="B56" t="s">
+        <v>564</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M22" location="'List 2'!B17" display="'List 2'!B17" xr:uid="{DBA106A2-54A3-4C4A-8FD1-1622B1053714}"/>
-    <hyperlink ref="E22" location="'List 2'!B16" display="'List 2'!B16" xr:uid="{5536CF3B-B738-E74B-97DB-B0B837CBD102}"/>
-    <hyperlink ref="I22" location="'List 2'!B18" display="'List 2'!B18" xr:uid="{5D870C2F-860E-5F4F-A879-AED2B7AD2FD8}"/>
-    <hyperlink ref="L22" location="'List 2'!B19" display="'List 2'!B19" xr:uid="{4FCC64FC-7AD5-DC4C-B82A-C98FBD1B2963}"/>
-    <hyperlink ref="R22" location="'List 2'!B20" display="'List 2'!B20" xr:uid="{5BDE9E3C-5A4C-E948-A934-9E7D96FC8795}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91CD60D-FC63-4643-8291-4035DB03526F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -34706,16 +37617,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>374</v>
+        <v>565</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
+        <v>566</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -34723,13 +37634,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>568</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>569</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -34737,13 +37648,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>571</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>572</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -34751,13 +37662,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>573</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>574</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -34765,13 +37676,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>577</v>
       </c>
       <c r="D5" t="s">
-        <v>386</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -34779,7 +37690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E607878F-D8F3-504B-A851-880F731EEC73}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B22"/>
@@ -34792,23 +37703,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>580</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -34816,7 +37727,7 @@
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -34824,55 +37735,55 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>393</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>394</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>395</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>396</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -34881,9 +37792,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010044A0EDE00DF21243BFAD1EA3C348C381" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30a20156c45ca9a19ecddccc38186426">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c7fda116-ce77-4f71-87cb-66d939771d78" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46657c20745927e9ef504450f5f4131e" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010044A0EDE00DF21243BFAD1EA3C348C381" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1fb01720e3c00ee8da4eb74b9aebbe9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c7fda116-ce77-4f71-87cb-66d939771d78" xmlns:ns3="b5858cb9-7351-4886-8e47-e96e9a6b9d01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1382b254bf470331f301b3e36a0d961" ns2:_="" ns3:_="">
     <xsd:import namespace="c7fda116-ce77-4f71-87cb-66d939771d78"/>
+    <xsd:import namespace="b5858cb9-7351-4886-8e47-e96e9a6b9d01"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -34898,6 +37810,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -34947,6 +37861,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0e960af4-01f6-4f5c-9dc6-429073b4700e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5858cb9-7351-4886-8e47-e96e9a6b9d01" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{3252f890-32b7-490e-836d-2a5ad8dcce6c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b5858cb9-7351-4886-8e47-e96e9a6b9d01">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -35050,7 +37986,12 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c7fda116-ce77-4f71-87cb-66d939771d78">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b5858cb9-7351-4886-8e47-e96e9a6b9d01" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -35064,7 +38005,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1042386B-9A30-4E2A-8255-D943C0FE2C92}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A669B2C-8376-4100-A4A0-5113022E2699}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
